--- a/Code/Results/Cases/Case_4_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.52026127414485</v>
+        <v>21.52026127414465</v>
       </c>
       <c r="C2">
-        <v>26.07873750967203</v>
+        <v>26.07873750967194</v>
       </c>
       <c r="D2">
-        <v>7.089412385708789</v>
+        <v>7.089412385708842</v>
       </c>
       <c r="E2">
-        <v>5.575831133483582</v>
+        <v>5.575831133483606</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.68914724731061</v>
+        <v>64.68914724731042</v>
       </c>
       <c r="I2">
-        <v>4.881977673208966</v>
+        <v>4.881977673209001</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.67893108148291</v>
+        <v>11.67893108148294</v>
       </c>
       <c r="L2">
-        <v>16.47613517861614</v>
+        <v>16.47613517861604</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.76482145126343</v>
+        <v>19.76482145126337</v>
       </c>
       <c r="C3">
-        <v>24.08571954467453</v>
+        <v>24.08571954467463</v>
       </c>
       <c r="D3">
-        <v>6.689527664527943</v>
+        <v>6.689527664527974</v>
       </c>
       <c r="E3">
-        <v>5.513276671883279</v>
+        <v>5.513276671883251</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.61274297188464</v>
+        <v>60.61274297188518</v>
       </c>
       <c r="I3">
-        <v>4.809975668124748</v>
+        <v>4.809975668124747</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.07790428168505</v>
+        <v>11.0779042816851</v>
       </c>
       <c r="L3">
         <v>15.1866939620541</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.6603721704582</v>
+        <v>18.66037217045815</v>
       </c>
       <c r="C4">
-        <v>22.82421282791424</v>
+        <v>22.82421282791411</v>
       </c>
       <c r="D4">
-        <v>6.443335343603255</v>
+        <v>6.443335343603264</v>
       </c>
       <c r="E4">
-        <v>5.47715644176907</v>
+        <v>5.477156441769048</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>58.05043863399376</v>
+        <v>58.05043863399321</v>
       </c>
       <c r="I4">
-        <v>4.76649345931776</v>
+        <v>4.766493459317759</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.70926760588505</v>
+        <v>10.70926760588501</v>
       </c>
       <c r="L4">
-        <v>14.47824373422051</v>
+        <v>14.47824373422052</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.20289112123726</v>
+        <v>18.20289112123729</v>
       </c>
       <c r="C5">
-        <v>22.32030870985312</v>
+        <v>22.32030870985326</v>
       </c>
       <c r="D5">
-        <v>6.342812385764494</v>
+        <v>6.342812385764604</v>
       </c>
       <c r="E5">
-        <v>5.462958145903421</v>
+        <v>5.46295814590355</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.99057239559748</v>
+        <v>56.99057239559798</v>
       </c>
       <c r="I5">
-        <v>4.748892611976216</v>
+        <v>4.748892611976316</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.55909923592998</v>
+        <v>10.55909923593001</v>
       </c>
       <c r="L5">
-        <v>14.25937493931553</v>
+        <v>14.2593749393155</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.12646117533664</v>
+        <v>18.12646117533662</v>
       </c>
       <c r="C6">
-        <v>22.23610522427296</v>
+        <v>22.23610522427289</v>
       </c>
       <c r="D6">
-        <v>6.326108606897581</v>
+        <v>6.326108606897537</v>
       </c>
       <c r="E6">
-        <v>5.460630555484465</v>
+        <v>5.460630555484418</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.81361772021158</v>
+        <v>56.81361772021134</v>
       </c>
       <c r="I6">
-        <v>4.745975479038014</v>
+        <v>4.745975479038016</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.53416697827992</v>
+        <v>10.5341669782799</v>
       </c>
       <c r="L6">
-        <v>14.22311876365527</v>
+        <v>14.22311876365528</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.65423325784961</v>
+        <v>18.65423325784943</v>
       </c>
       <c r="C7">
-        <v>22.81745232666176</v>
+        <v>22.81745232666169</v>
       </c>
       <c r="D7">
-        <v>6.441980465470534</v>
+        <v>6.441980465470495</v>
       </c>
       <c r="E7">
-        <v>5.476962915211739</v>
+        <v>5.476962915211623</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58.03620927563957</v>
+        <v>58.03620927563953</v>
       </c>
       <c r="I7">
-        <v>4.766255685692719</v>
+        <v>4.766255685692685</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.70724217985846</v>
+        <v>10.70724217985847</v>
       </c>
       <c r="L7">
-        <v>14.47528616600416</v>
+        <v>14.47528616600418</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.92002206455827</v>
+        <v>20.92002206455836</v>
       </c>
       <c r="C8">
-        <v>25.39902377320156</v>
+        <v>25.39902377320186</v>
       </c>
       <c r="D8">
-        <v>6.951636190276942</v>
+        <v>6.951636190276941</v>
       </c>
       <c r="E8">
-        <v>5.553751825336168</v>
+        <v>5.553751825336112</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.29534617368816</v>
+        <v>63.29534617368864</v>
       </c>
       <c r="I8">
-        <v>4.856958046647176</v>
+        <v>4.856958046647174</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.47156707196003</v>
+        <v>11.47156707196005</v>
       </c>
       <c r="L8">
-        <v>16.03665918124766</v>
+        <v>16.03665918124778</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.19464961464808</v>
+        <v>25.19464961464791</v>
       </c>
       <c r="C9">
-        <v>30.19894472698351</v>
+        <v>30.19894472698339</v>
       </c>
       <c r="D9">
-        <v>7.950023747529523</v>
+        <v>7.950023747529455</v>
       </c>
       <c r="E9">
-        <v>5.725519523507304</v>
+        <v>5.725519523507248</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73.19388524490007</v>
+        <v>73.19388524489931</v>
       </c>
       <c r="I9">
         <v>5.044239336198888</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.97959994884741</v>
+        <v>12.97959994884737</v>
       </c>
       <c r="L9">
-        <v>19.13673281157762</v>
+        <v>19.13673281157752</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.31229930304832</v>
+        <v>28.31229930304837</v>
       </c>
       <c r="C10">
-        <v>33.6381705161137</v>
+        <v>33.63817051611345</v>
       </c>
       <c r="D10">
-        <v>8.694059219768878</v>
+        <v>8.694059219768926</v>
       </c>
       <c r="E10">
-        <v>5.870141195257308</v>
+        <v>5.870141195257303</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>80.33304907907247</v>
+        <v>80.3330490790715</v>
       </c>
       <c r="I10">
-        <v>5.194313341137667</v>
+        <v>5.194313341137726</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.10935822588143</v>
+        <v>14.10935822588136</v>
       </c>
       <c r="L10">
-        <v>21.35700229407959</v>
+        <v>21.35700229407952</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.75199952301039</v>
+        <v>29.75199952301026</v>
       </c>
       <c r="C11">
-        <v>35.20810993484444</v>
+        <v>35.20810993484438</v>
       </c>
       <c r="D11">
-        <v>9.039349159537197</v>
+        <v>9.039349159537123</v>
       </c>
       <c r="E11">
-        <v>5.941726801471871</v>
+        <v>5.941726801471906</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>83.59441633511631</v>
+        <v>83.59441633511605</v>
       </c>
       <c r="I11">
-        <v>5.267525643615181</v>
+        <v>5.267525643615179</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.63468374079092</v>
+        <v>14.63468374079091</v>
       </c>
       <c r="L11">
-        <v>22.37129550849296</v>
+        <v>22.37129550849285</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.30345598375208</v>
+        <v>30.30345598375224</v>
       </c>
       <c r="C12">
-        <v>35.80632263350817</v>
+        <v>35.80632263350815</v>
       </c>
       <c r="D12">
-        <v>9.185926530876914</v>
+        <v>9.185926530876905</v>
       </c>
       <c r="E12">
-        <v>5.969885119617784</v>
+        <v>5.969885119617758</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>84.83666747029984</v>
+        <v>84.83666747029962</v>
       </c>
       <c r="I12">
-        <v>5.296233187956513</v>
+        <v>5.296233187956445</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.83612453341561</v>
+        <v>14.83612453341559</v>
       </c>
       <c r="L12">
-        <v>22.75798673087955</v>
+        <v>22.75798673087962</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.18434779124708</v>
+        <v>30.1843477912469</v>
       </c>
       <c r="C13">
-        <v>35.67726368595696</v>
+        <v>35.6772636859567</v>
       </c>
       <c r="D13">
-        <v>9.153306287463883</v>
+        <v>9.153306287463829</v>
       </c>
       <c r="E13">
-        <v>5.963769691971746</v>
+        <v>5.963769691971827</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>84.56869916523534</v>
+        <v>84.56869916523453</v>
       </c>
       <c r="I13">
-        <v>5.290001305820252</v>
+        <v>5.290001305820255</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.7926111455944</v>
+        <v>14.79261114559437</v>
       </c>
       <c r="L13">
-        <v>22.67455106264664</v>
+        <v>22.6745510626465</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.7972201320092</v>
+        <v>29.79722013200939</v>
       </c>
       <c r="C14">
-        <v>35.25723035492786</v>
+        <v>35.25723035492847</v>
       </c>
       <c r="D14">
         <v>9.050200005268522</v>
       </c>
       <c r="E14">
-        <v>5.944020828170742</v>
+        <v>5.944020828170819</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>83.69643478456203</v>
+        <v>83.69643478456396</v>
       </c>
       <c r="I14">
-        <v>5.269865792249796</v>
+        <v>5.269865792249905</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.65119978136774</v>
+        <v>14.65119978136786</v>
       </c>
       <c r="L14">
-        <v>22.4030428774612</v>
+        <v>22.40304287746133</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -912,10 +912,10 @@
         <v>35.00053563512127</v>
       </c>
       <c r="D15">
-        <v>8.993525513410077</v>
+        <v>8.993525513410047</v>
       </c>
       <c r="E15">
-        <v>5.932068629993047</v>
+        <v>5.932068629993041</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>83.16327999454298</v>
+        <v>83.16327999454249</v>
       </c>
       <c r="I15">
-        <v>5.257670105102304</v>
+        <v>5.257670105102238</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.56494023954055</v>
+        <v>14.56494023954058</v>
       </c>
       <c r="L15">
-        <v>22.23714541881713</v>
+        <v>22.23714541881717</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.21889177725911</v>
+        <v>28.21889177725891</v>
       </c>
       <c r="C16">
-        <v>33.53590879921598</v>
+        <v>33.53590879921573</v>
       </c>
       <c r="D16">
-        <v>8.671676534618628</v>
+        <v>8.671676534618602</v>
       </c>
       <c r="E16">
-        <v>5.865596427134834</v>
+        <v>5.86559642713473</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>80.12059621134644</v>
+        <v>80.12059621134551</v>
       </c>
       <c r="I16">
-        <v>5.189649397859293</v>
+        <v>5.189649397859119</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.07532325159869</v>
+        <v>14.07532325159864</v>
       </c>
       <c r="L16">
-        <v>21.29095708349073</v>
+        <v>21.29095708349062</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.40298423146996</v>
+        <v>27.40298423146992</v>
       </c>
       <c r="C17">
-        <v>32.64058902812178</v>
+        <v>32.64058902812188</v>
       </c>
       <c r="D17">
-        <v>8.476334102876409</v>
+        <v>8.476334102876486</v>
       </c>
       <c r="E17">
-        <v>5.826434908349986</v>
+        <v>5.826434908350027</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78.26072402210252</v>
+        <v>78.26072402210326</v>
       </c>
       <c r="I17">
-        <v>5.149352859276402</v>
+        <v>5.149352859276505</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.77839747528785</v>
+        <v>13.77839747528787</v>
       </c>
       <c r="L17">
-        <v>20.71281736437665</v>
+        <v>20.71281736437669</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.93547556502652</v>
+        <v>26.93547556502672</v>
       </c>
       <c r="C18">
-        <v>32.12591339715428</v>
+        <v>32.12591339715472</v>
       </c>
       <c r="D18">
-        <v>8.364574445240267</v>
+        <v>8.364574445240306</v>
       </c>
       <c r="E18">
-        <v>5.804439435690526</v>
+        <v>5.804439435690512</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>77.19186426010604</v>
+        <v>77.19186426010717</v>
       </c>
       <c r="I18">
-        <v>5.126619887615619</v>
+        <v>5.126619887615622</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.60861760754815</v>
+        <v>13.60861760754824</v>
       </c>
       <c r="L18">
-        <v>20.38054073259068</v>
+        <v>20.38054073259088</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.77741034651242</v>
+        <v>26.77741034651229</v>
       </c>
       <c r="C19">
-        <v>31.95162856878661</v>
+        <v>31.95162856878653</v>
       </c>
       <c r="D19">
-        <v>8.326822420990192</v>
+        <v>8.326822420990215</v>
       </c>
       <c r="E19">
-        <v>5.797077571812256</v>
+        <v>5.797077571812144</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>76.82998755663209</v>
+        <v>76.82998755663121</v>
       </c>
       <c r="I19">
-        <v>5.118992399186483</v>
+        <v>5.118992399186348</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.55128415073518</v>
+        <v>13.55128415073514</v>
       </c>
       <c r="L19">
-        <v>20.26803078290117</v>
+        <v>20.26803078290116</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.48963506284053</v>
+        <v>27.48963506284047</v>
       </c>
       <c r="C20">
-        <v>32.73584932876293</v>
+        <v>32.73584932876282</v>
       </c>
       <c r="D20">
-        <v>8.497063364026362</v>
+        <v>8.497063364026394</v>
       </c>
       <c r="E20">
-        <v>5.830547609880317</v>
+        <v>5.830547609880298</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>78.45858614897898</v>
+        <v>78.4585861489789</v>
       </c>
       <c r="I20">
-        <v>5.153594809063067</v>
+        <v>5.153594809063131</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.80989656018617</v>
+        <v>13.80989656018614</v>
       </c>
       <c r="L20">
-        <v>20.77432269199435</v>
+        <v>20.77432269199434</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.9107275873909</v>
+        <v>29.9107275873908</v>
       </c>
       <c r="C21">
-        <v>35.38047504202896</v>
+        <v>35.38047504202873</v>
       </c>
       <c r="D21">
-        <v>9.078259913541052</v>
+        <v>9.078259913540874</v>
       </c>
       <c r="E21">
-        <v>5.949790920073493</v>
+        <v>5.949790920073368</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>83.9523917097908</v>
+        <v>83.95239170978971</v>
       </c>
       <c r="I21">
-        <v>5.275750705948831</v>
+        <v>5.275750705948694</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.69265882327053</v>
+        <v>14.69265882327043</v>
       </c>
       <c r="L21">
-        <v>22.48270158241556</v>
+        <v>22.48270158241551</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.53203207923547</v>
+        <v>31.53203207923554</v>
       </c>
       <c r="C22">
-        <v>37.13274071921608</v>
+        <v>37.13274071921597</v>
       </c>
       <c r="D22">
-        <v>9.520691142736283</v>
+        <v>9.520691142736297</v>
       </c>
       <c r="E22">
-        <v>6.034011465737591</v>
+        <v>6.034011465737576</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>87.5891674769836</v>
+        <v>87.58916747698309</v>
       </c>
       <c r="I22">
-        <v>5.361530329566428</v>
+        <v>5.361530329566427</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.32633900124154</v>
+        <v>15.32633900124151</v>
       </c>
       <c r="L22">
-        <v>23.61587239992592</v>
+        <v>23.61587239992591</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.66176532516233</v>
+        <v>30.66176532516249</v>
       </c>
       <c r="C23">
-        <v>36.19407270498278</v>
+        <v>36.19407270498259</v>
       </c>
       <c r="D23">
-        <v>9.283881466847408</v>
+        <v>9.283881466847395</v>
       </c>
       <c r="E23">
-        <v>5.988391735961921</v>
+        <v>5.98839173596186</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>85.64162055926545</v>
+        <v>85.64162055926504</v>
       </c>
       <c r="I23">
-        <v>5.315084998515269</v>
+        <v>5.315084998515225</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.9670303423806</v>
+        <v>14.96703034238053</v>
       </c>
       <c r="L23">
-        <v>23.00870086600748</v>
+        <v>23.00870086600745</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.45045556352865</v>
+        <v>27.45045556352861</v>
       </c>
       <c r="C24">
-        <v>32.69278217948852</v>
+        <v>32.69278217948827</v>
       </c>
       <c r="D24">
-        <v>8.487690007715724</v>
+        <v>8.487690007715806</v>
       </c>
       <c r="E24">
-        <v>5.828686656138465</v>
+        <v>5.828686656138537</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>78.36913178742674</v>
+        <v>78.36913178742623</v>
       </c>
       <c r="I24">
-        <v>5.151675690708389</v>
+        <v>5.151675690708453</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.79565299805689</v>
+        <v>13.79565299805684</v>
       </c>
       <c r="L24">
-        <v>20.74651595037795</v>
+        <v>20.74651595037786</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.04934373676199</v>
+        <v>24.049343736762</v>
       </c>
       <c r="C25">
-        <v>28.92227965968187</v>
+        <v>28.92227965968227</v>
       </c>
       <c r="D25">
-        <v>7.679202367834022</v>
+        <v>7.679202367834064</v>
       </c>
       <c r="E25">
-        <v>5.676298153743166</v>
+        <v>5.676298153743133</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.55054961467715</v>
+        <v>70.55054961467762</v>
       </c>
       <c r="I25">
-        <v>4.991978015337643</v>
+        <v>4.991978015337641</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>12.5694352226282</v>
       </c>
       <c r="L25">
-        <v>18.31268956734555</v>
+        <v>18.31268956734561</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.52026127414465</v>
+        <v>21.52026127414485</v>
       </c>
       <c r="C2">
-        <v>26.07873750967194</v>
+        <v>26.07873750967203</v>
       </c>
       <c r="D2">
-        <v>7.089412385708842</v>
+        <v>7.089412385708789</v>
       </c>
       <c r="E2">
-        <v>5.575831133483606</v>
+        <v>5.575831133483582</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,19 +430,19 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>64.68914724731042</v>
+        <v>64.68914724731061</v>
       </c>
       <c r="I2">
-        <v>4.881977673209001</v>
+        <v>4.881977673208966</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.67893108148294</v>
+        <v>11.67893108148291</v>
       </c>
       <c r="L2">
-        <v>16.47613517861604</v>
+        <v>16.47613517861614</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.76482145126337</v>
+        <v>19.76482145126343</v>
       </c>
       <c r="C3">
-        <v>24.08571954467463</v>
+        <v>24.08571954467453</v>
       </c>
       <c r="D3">
-        <v>6.689527664527974</v>
+        <v>6.689527664527943</v>
       </c>
       <c r="E3">
-        <v>5.513276671883251</v>
+        <v>5.513276671883279</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>60.61274297188518</v>
+        <v>60.61274297188464</v>
       </c>
       <c r="I3">
-        <v>4.809975668124747</v>
+        <v>4.809975668124748</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.0779042816851</v>
+        <v>11.07790428168505</v>
       </c>
       <c r="L3">
         <v>15.1866939620541</v>
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.66037217045815</v>
+        <v>18.6603721704582</v>
       </c>
       <c r="C4">
-        <v>22.82421282791411</v>
+        <v>22.82421282791424</v>
       </c>
       <c r="D4">
-        <v>6.443335343603264</v>
+        <v>6.443335343603255</v>
       </c>
       <c r="E4">
-        <v>5.477156441769048</v>
+        <v>5.47715644176907</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>58.05043863399321</v>
+        <v>58.05043863399376</v>
       </c>
       <c r="I4">
-        <v>4.766493459317759</v>
+        <v>4.76649345931776</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.70926760588501</v>
+        <v>10.70926760588505</v>
       </c>
       <c r="L4">
-        <v>14.47824373422052</v>
+        <v>14.47824373422051</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.20289112123729</v>
+        <v>18.20289112123726</v>
       </c>
       <c r="C5">
-        <v>22.32030870985326</v>
+        <v>22.32030870985312</v>
       </c>
       <c r="D5">
-        <v>6.342812385764604</v>
+        <v>6.342812385764494</v>
       </c>
       <c r="E5">
-        <v>5.46295814590355</v>
+        <v>5.462958145903421</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -544,19 +544,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>56.99057239559798</v>
+        <v>56.99057239559748</v>
       </c>
       <c r="I5">
-        <v>4.748892611976316</v>
+        <v>4.748892611976216</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.55909923593001</v>
+        <v>10.55909923592998</v>
       </c>
       <c r="L5">
-        <v>14.2593749393155</v>
+        <v>14.25937493931553</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.12646117533662</v>
+        <v>18.12646117533664</v>
       </c>
       <c r="C6">
-        <v>22.23610522427289</v>
+        <v>22.23610522427296</v>
       </c>
       <c r="D6">
-        <v>6.326108606897537</v>
+        <v>6.326108606897581</v>
       </c>
       <c r="E6">
-        <v>5.460630555484418</v>
+        <v>5.460630555484465</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -582,19 +582,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56.81361772021134</v>
+        <v>56.81361772021158</v>
       </c>
       <c r="I6">
-        <v>4.745975479038016</v>
+        <v>4.745975479038014</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.5341669782799</v>
+        <v>10.53416697827992</v>
       </c>
       <c r="L6">
-        <v>14.22311876365528</v>
+        <v>14.22311876365527</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.65423325784943</v>
+        <v>18.65423325784961</v>
       </c>
       <c r="C7">
-        <v>22.81745232666169</v>
+        <v>22.81745232666176</v>
       </c>
       <c r="D7">
-        <v>6.441980465470495</v>
+        <v>6.441980465470534</v>
       </c>
       <c r="E7">
-        <v>5.476962915211623</v>
+        <v>5.476962915211739</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58.03620927563953</v>
+        <v>58.03620927563957</v>
       </c>
       <c r="I7">
-        <v>4.766255685692685</v>
+        <v>4.766255685692719</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.70724217985847</v>
+        <v>10.70724217985846</v>
       </c>
       <c r="L7">
-        <v>14.47528616600418</v>
+        <v>14.47528616600416</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.92002206455836</v>
+        <v>20.92002206455827</v>
       </c>
       <c r="C8">
-        <v>25.39902377320186</v>
+        <v>25.39902377320156</v>
       </c>
       <c r="D8">
-        <v>6.951636190276941</v>
+        <v>6.951636190276942</v>
       </c>
       <c r="E8">
-        <v>5.553751825336112</v>
+        <v>5.553751825336168</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,19 +658,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>63.29534617368864</v>
+        <v>63.29534617368816</v>
       </c>
       <c r="I8">
-        <v>4.856958046647174</v>
+        <v>4.856958046647176</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.47156707196005</v>
+        <v>11.47156707196003</v>
       </c>
       <c r="L8">
-        <v>16.03665918124778</v>
+        <v>16.03665918124766</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.19464961464791</v>
+        <v>25.19464961464808</v>
       </c>
       <c r="C9">
-        <v>30.19894472698339</v>
+        <v>30.19894472698351</v>
       </c>
       <c r="D9">
-        <v>7.950023747529455</v>
+        <v>7.950023747529523</v>
       </c>
       <c r="E9">
-        <v>5.725519523507248</v>
+        <v>5.725519523507304</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73.19388524489931</v>
+        <v>73.19388524490007</v>
       </c>
       <c r="I9">
         <v>5.044239336198888</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.97959994884737</v>
+        <v>12.97959994884741</v>
       </c>
       <c r="L9">
-        <v>19.13673281157752</v>
+        <v>19.13673281157762</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.31229930304837</v>
+        <v>28.31229930304832</v>
       </c>
       <c r="C10">
-        <v>33.63817051611345</v>
+        <v>33.6381705161137</v>
       </c>
       <c r="D10">
-        <v>8.694059219768926</v>
+        <v>8.694059219768878</v>
       </c>
       <c r="E10">
-        <v>5.870141195257303</v>
+        <v>5.870141195257308</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>80.3330490790715</v>
+        <v>80.33304907907247</v>
       </c>
       <c r="I10">
-        <v>5.194313341137726</v>
+        <v>5.194313341137667</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.10935822588136</v>
+        <v>14.10935822588143</v>
       </c>
       <c r="L10">
-        <v>21.35700229407952</v>
+        <v>21.35700229407959</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.75199952301026</v>
+        <v>29.75199952301039</v>
       </c>
       <c r="C11">
-        <v>35.20810993484438</v>
+        <v>35.20810993484444</v>
       </c>
       <c r="D11">
-        <v>9.039349159537123</v>
+        <v>9.039349159537197</v>
       </c>
       <c r="E11">
-        <v>5.941726801471906</v>
+        <v>5.941726801471871</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>83.59441633511605</v>
+        <v>83.59441633511631</v>
       </c>
       <c r="I11">
-        <v>5.267525643615179</v>
+        <v>5.267525643615181</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.63468374079091</v>
+        <v>14.63468374079092</v>
       </c>
       <c r="L11">
-        <v>22.37129550849285</v>
+        <v>22.37129550849296</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.30345598375224</v>
+        <v>30.30345598375208</v>
       </c>
       <c r="C12">
-        <v>35.80632263350815</v>
+        <v>35.80632263350817</v>
       </c>
       <c r="D12">
-        <v>9.185926530876905</v>
+        <v>9.185926530876914</v>
       </c>
       <c r="E12">
-        <v>5.969885119617758</v>
+        <v>5.969885119617784</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>84.83666747029962</v>
+        <v>84.83666747029984</v>
       </c>
       <c r="I12">
-        <v>5.296233187956445</v>
+        <v>5.296233187956513</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.83612453341559</v>
+        <v>14.83612453341561</v>
       </c>
       <c r="L12">
-        <v>22.75798673087962</v>
+        <v>22.75798673087955</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,16 +830,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.1843477912469</v>
+        <v>30.18434779124708</v>
       </c>
       <c r="C13">
-        <v>35.6772636859567</v>
+        <v>35.67726368595696</v>
       </c>
       <c r="D13">
-        <v>9.153306287463829</v>
+        <v>9.153306287463883</v>
       </c>
       <c r="E13">
-        <v>5.963769691971827</v>
+        <v>5.963769691971746</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -848,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>84.56869916523453</v>
+        <v>84.56869916523534</v>
       </c>
       <c r="I13">
-        <v>5.290001305820255</v>
+        <v>5.290001305820252</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.79261114559437</v>
+        <v>14.7926111455944</v>
       </c>
       <c r="L13">
-        <v>22.6745510626465</v>
+        <v>22.67455106264664</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.79722013200939</v>
+        <v>29.7972201320092</v>
       </c>
       <c r="C14">
-        <v>35.25723035492847</v>
+        <v>35.25723035492786</v>
       </c>
       <c r="D14">
         <v>9.050200005268522</v>
       </c>
       <c r="E14">
-        <v>5.944020828170819</v>
+        <v>5.944020828170742</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>83.69643478456396</v>
+        <v>83.69643478456203</v>
       </c>
       <c r="I14">
-        <v>5.269865792249905</v>
+        <v>5.269865792249796</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.65119978136786</v>
+        <v>14.65119978136774</v>
       </c>
       <c r="L14">
-        <v>22.40304287746133</v>
+        <v>22.4030428774612</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -912,10 +912,10 @@
         <v>35.00053563512127</v>
       </c>
       <c r="D15">
-        <v>8.993525513410047</v>
+        <v>8.993525513410077</v>
       </c>
       <c r="E15">
-        <v>5.932068629993041</v>
+        <v>5.932068629993047</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,19 +924,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>83.16327999454249</v>
+        <v>83.16327999454298</v>
       </c>
       <c r="I15">
-        <v>5.257670105102238</v>
+        <v>5.257670105102304</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.56494023954058</v>
+        <v>14.56494023954055</v>
       </c>
       <c r="L15">
-        <v>22.23714541881717</v>
+        <v>22.23714541881713</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.21889177725891</v>
+        <v>28.21889177725911</v>
       </c>
       <c r="C16">
-        <v>33.53590879921573</v>
+        <v>33.53590879921598</v>
       </c>
       <c r="D16">
-        <v>8.671676534618602</v>
+        <v>8.671676534618628</v>
       </c>
       <c r="E16">
-        <v>5.86559642713473</v>
+        <v>5.865596427134834</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>80.12059621134551</v>
+        <v>80.12059621134644</v>
       </c>
       <c r="I16">
-        <v>5.189649397859119</v>
+        <v>5.189649397859293</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.07532325159864</v>
+        <v>14.07532325159869</v>
       </c>
       <c r="L16">
-        <v>21.29095708349062</v>
+        <v>21.29095708349073</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.40298423146992</v>
+        <v>27.40298423146996</v>
       </c>
       <c r="C17">
-        <v>32.64058902812188</v>
+        <v>32.64058902812178</v>
       </c>
       <c r="D17">
-        <v>8.476334102876486</v>
+        <v>8.476334102876409</v>
       </c>
       <c r="E17">
-        <v>5.826434908350027</v>
+        <v>5.826434908349986</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78.26072402210326</v>
+        <v>78.26072402210252</v>
       </c>
       <c r="I17">
-        <v>5.149352859276505</v>
+        <v>5.149352859276402</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.77839747528787</v>
+        <v>13.77839747528785</v>
       </c>
       <c r="L17">
-        <v>20.71281736437669</v>
+        <v>20.71281736437665</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.93547556502672</v>
+        <v>26.93547556502652</v>
       </c>
       <c r="C18">
-        <v>32.12591339715472</v>
+        <v>32.12591339715428</v>
       </c>
       <c r="D18">
-        <v>8.364574445240306</v>
+        <v>8.364574445240267</v>
       </c>
       <c r="E18">
-        <v>5.804439435690512</v>
+        <v>5.804439435690526</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>77.19186426010717</v>
+        <v>77.19186426010604</v>
       </c>
       <c r="I18">
-        <v>5.126619887615622</v>
+        <v>5.126619887615619</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.60861760754824</v>
+        <v>13.60861760754815</v>
       </c>
       <c r="L18">
-        <v>20.38054073259088</v>
+        <v>20.38054073259068</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.77741034651229</v>
+        <v>26.77741034651242</v>
       </c>
       <c r="C19">
-        <v>31.95162856878653</v>
+        <v>31.95162856878661</v>
       </c>
       <c r="D19">
-        <v>8.326822420990215</v>
+        <v>8.326822420990192</v>
       </c>
       <c r="E19">
-        <v>5.797077571812144</v>
+        <v>5.797077571812256</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>76.82998755663121</v>
+        <v>76.82998755663209</v>
       </c>
       <c r="I19">
-        <v>5.118992399186348</v>
+        <v>5.118992399186483</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.55128415073514</v>
+        <v>13.55128415073518</v>
       </c>
       <c r="L19">
-        <v>20.26803078290116</v>
+        <v>20.26803078290117</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.48963506284047</v>
+        <v>27.48963506284053</v>
       </c>
       <c r="C20">
-        <v>32.73584932876282</v>
+        <v>32.73584932876293</v>
       </c>
       <c r="D20">
-        <v>8.497063364026394</v>
+        <v>8.497063364026362</v>
       </c>
       <c r="E20">
-        <v>5.830547609880298</v>
+        <v>5.830547609880317</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>78.4585861489789</v>
+        <v>78.45858614897898</v>
       </c>
       <c r="I20">
-        <v>5.153594809063131</v>
+        <v>5.153594809063067</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.80989656018614</v>
+        <v>13.80989656018617</v>
       </c>
       <c r="L20">
-        <v>20.77432269199434</v>
+        <v>20.77432269199435</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.9107275873908</v>
+        <v>29.9107275873909</v>
       </c>
       <c r="C21">
-        <v>35.38047504202873</v>
+        <v>35.38047504202896</v>
       </c>
       <c r="D21">
-        <v>9.078259913540874</v>
+        <v>9.078259913541052</v>
       </c>
       <c r="E21">
-        <v>5.949790920073368</v>
+        <v>5.949790920073493</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>83.95239170978971</v>
+        <v>83.9523917097908</v>
       </c>
       <c r="I21">
-        <v>5.275750705948694</v>
+        <v>5.275750705948831</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.69265882327043</v>
+        <v>14.69265882327053</v>
       </c>
       <c r="L21">
-        <v>22.48270158241551</v>
+        <v>22.48270158241556</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.53203207923554</v>
+        <v>31.53203207923547</v>
       </c>
       <c r="C22">
-        <v>37.13274071921597</v>
+        <v>37.13274071921608</v>
       </c>
       <c r="D22">
-        <v>9.520691142736297</v>
+        <v>9.520691142736283</v>
       </c>
       <c r="E22">
-        <v>6.034011465737576</v>
+        <v>6.034011465737591</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>87.58916747698309</v>
+        <v>87.5891674769836</v>
       </c>
       <c r="I22">
-        <v>5.361530329566427</v>
+        <v>5.361530329566428</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>15.32633900124151</v>
+        <v>15.32633900124154</v>
       </c>
       <c r="L22">
-        <v>23.61587239992591</v>
+        <v>23.61587239992592</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,16 +1210,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.66176532516249</v>
+        <v>30.66176532516233</v>
       </c>
       <c r="C23">
-        <v>36.19407270498259</v>
+        <v>36.19407270498278</v>
       </c>
       <c r="D23">
-        <v>9.283881466847395</v>
+        <v>9.283881466847408</v>
       </c>
       <c r="E23">
-        <v>5.98839173596186</v>
+        <v>5.988391735961921</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1228,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>85.64162055926504</v>
+        <v>85.64162055926545</v>
       </c>
       <c r="I23">
-        <v>5.315084998515225</v>
+        <v>5.315084998515269</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.96703034238053</v>
+        <v>14.9670303423806</v>
       </c>
       <c r="L23">
-        <v>23.00870086600745</v>
+        <v>23.00870086600748</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.45045556352861</v>
+        <v>27.45045556352865</v>
       </c>
       <c r="C24">
-        <v>32.69278217948827</v>
+        <v>32.69278217948852</v>
       </c>
       <c r="D24">
-        <v>8.487690007715806</v>
+        <v>8.487690007715724</v>
       </c>
       <c r="E24">
-        <v>5.828686656138537</v>
+        <v>5.828686656138465</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>78.36913178742623</v>
+        <v>78.36913178742674</v>
       </c>
       <c r="I24">
-        <v>5.151675690708453</v>
+        <v>5.151675690708389</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.79565299805684</v>
+        <v>13.79565299805689</v>
       </c>
       <c r="L24">
-        <v>20.74651595037786</v>
+        <v>20.74651595037795</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.049343736762</v>
+        <v>24.04934373676199</v>
       </c>
       <c r="C25">
-        <v>28.92227965968227</v>
+        <v>28.92227965968187</v>
       </c>
       <c r="D25">
-        <v>7.679202367834064</v>
+        <v>7.679202367834022</v>
       </c>
       <c r="E25">
-        <v>5.676298153743133</v>
+        <v>5.676298153743166</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70.55054961467762</v>
+        <v>70.55054961467715</v>
       </c>
       <c r="I25">
-        <v>4.991978015337641</v>
+        <v>4.991978015337643</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>12.5694352226282</v>
       </c>
       <c r="L25">
-        <v>18.31268956734561</v>
+        <v>18.31268956734555</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.52026127414485</v>
+        <v>21.35504875506458</v>
       </c>
       <c r="C2">
-        <v>26.07873750967203</v>
+        <v>25.96260299459624</v>
       </c>
       <c r="D2">
-        <v>7.089412385708789</v>
+        <v>7.068797632758287</v>
       </c>
       <c r="E2">
-        <v>5.575831133483582</v>
+        <v>5.461021278444607</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.065256173088351</v>
       </c>
       <c r="H2">
-        <v>64.68914724731061</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4.881977673208966</v>
+        <v>64.7542982390688</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.797503411554843</v>
       </c>
       <c r="K2">
-        <v>11.67893108148291</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>16.47613517861614</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>11.68184835532666</v>
+      </c>
+      <c r="M2">
+        <v>16.36881464046602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.76482145126343</v>
+        <v>19.61808335556675</v>
       </c>
       <c r="C3">
-        <v>24.08571954467453</v>
+        <v>23.99128406960827</v>
       </c>
       <c r="D3">
-        <v>6.689527664527943</v>
+        <v>6.670460507665505</v>
       </c>
       <c r="E3">
-        <v>5.513276671883279</v>
+        <v>5.396074229468225</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.086039468531039</v>
       </c>
       <c r="H3">
-        <v>60.61274297188464</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.809975668124748</v>
+        <v>60.71210187817557</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.725088357955333</v>
       </c>
       <c r="K3">
-        <v>11.07790428168505</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>15.1866939620541</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>11.08739003711934</v>
+      </c>
+      <c r="M3">
+        <v>15.08655590308029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.6603721704582</v>
+        <v>18.5259212353287</v>
       </c>
       <c r="C4">
-        <v>22.82421282791424</v>
+        <v>22.79283171828337</v>
       </c>
       <c r="D4">
-        <v>6.443335343603255</v>
+        <v>6.425157286064029</v>
       </c>
       <c r="E4">
-        <v>5.47715644176907</v>
+        <v>5.358439967558091</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.098806845440813</v>
       </c>
       <c r="H4">
-        <v>58.05043863399376</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>4.76649345931776</v>
+        <v>58.17202187932116</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.681321002034579</v>
       </c>
       <c r="K4">
-        <v>10.70926760588505</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>14.47824373422051</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>10.72296071610245</v>
+      </c>
+      <c r="M4">
+        <v>14.52845499802853</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.20289112123726</v>
+        <v>18.07372470475122</v>
       </c>
       <c r="C5">
-        <v>22.32030870985312</v>
+        <v>22.29629361711851</v>
       </c>
       <c r="D5">
-        <v>6.342812385764494</v>
+        <v>6.324984006562541</v>
       </c>
       <c r="E5">
-        <v>5.462958145903421</v>
+        <v>5.343614430090627</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.104025869146726</v>
       </c>
       <c r="H5">
-        <v>56.99057239559748</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>4.748892611976216</v>
+        <v>57.12156183350562</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.663597059638951</v>
       </c>
       <c r="K5">
-        <v>10.55909923592998</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>14.25937493931553</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>10.5745542649972</v>
+      </c>
+      <c r="M5">
+        <v>14.31458445086841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.12646117533664</v>
+        <v>17.99819022155415</v>
       </c>
       <c r="C6">
-        <v>22.23610522427296</v>
+        <v>22.21334019516894</v>
       </c>
       <c r="D6">
-        <v>6.326108606897581</v>
+        <v>6.308337595295413</v>
       </c>
       <c r="E6">
-        <v>5.460630555484465</v>
+        <v>5.34118209435843</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.104893849301898</v>
       </c>
       <c r="H6">
-        <v>56.81361772021158</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>4.745975479038014</v>
+        <v>56.94619130993885</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.660659096181909</v>
       </c>
       <c r="K6">
-        <v>10.53416697827992</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>14.22311876365527</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>10.54991750495467</v>
+      </c>
+      <c r="M6">
+        <v>14.27917022603062</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.65423325784961</v>
+        <v>18.51985241381135</v>
       </c>
       <c r="C7">
-        <v>22.81745232666176</v>
+        <v>22.78616878209209</v>
       </c>
       <c r="D7">
-        <v>6.441980465470534</v>
+        <v>6.423807171870317</v>
       </c>
       <c r="E7">
-        <v>5.476962915211739</v>
+        <v>5.358238022088524</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.098877147649922</v>
       </c>
       <c r="H7">
-        <v>58.03620927563957</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>4.766255685692719</v>
+        <v>58.1579179081879</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.681081595032443</v>
       </c>
       <c r="K7">
-        <v>10.70724217985846</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>14.47528616600416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>10.720958856643</v>
+      </c>
+      <c r="M7">
+        <v>14.52556403425361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.92002206455827</v>
+        <v>20.76100729940348</v>
       </c>
       <c r="C8">
-        <v>25.39902377320156</v>
+        <v>25.2899407764956</v>
       </c>
       <c r="D8">
-        <v>6.951636190276942</v>
+        <v>6.931569623512345</v>
       </c>
       <c r="E8">
-        <v>5.553751825336168</v>
+        <v>5.438127028539022</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.072430484630194</v>
       </c>
       <c r="H8">
-        <v>63.29534617368816</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>4.856958046647176</v>
+        <v>63.37206625969641</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.772348616872143</v>
       </c>
       <c r="K8">
-        <v>11.47156707196003</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>16.03665918124766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>11.47671571047707</v>
+      </c>
+      <c r="M8">
+        <v>15.931807924126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.19464961464808</v>
+        <v>24.99302457125177</v>
       </c>
       <c r="C9">
-        <v>30.19894472698351</v>
+        <v>30.04167011928211</v>
       </c>
       <c r="D9">
-        <v>7.950023747529523</v>
+        <v>7.925584524726756</v>
       </c>
       <c r="E9">
-        <v>5.725519523507304</v>
+        <v>5.615557989277539</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.019808305223308</v>
       </c>
       <c r="H9">
-        <v>73.19388524490007</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>5.044239336198888</v>
+        <v>73.18975883748365</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.960422069744441</v>
       </c>
       <c r="K9">
-        <v>12.97959994884741</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>19.13673281157762</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>12.96905746121561</v>
+      </c>
+      <c r="M9">
+        <v>19.01369891486197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.31229930304832</v>
+        <v>28.08001981122895</v>
       </c>
       <c r="C10">
-        <v>33.6381705161137</v>
+        <v>33.44684343078744</v>
       </c>
       <c r="D10">
-        <v>8.694059219768878</v>
+        <v>8.665633836506153</v>
       </c>
       <c r="E10">
-        <v>5.870141195257308</v>
+        <v>5.7639740379586</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.979219299371162</v>
       </c>
       <c r="H10">
-        <v>80.33304907907247</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>5.194313341137667</v>
+        <v>80.26982200617496</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.11074763198652</v>
       </c>
       <c r="K10">
-        <v>14.10935822588143</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>21.35700229407959</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>14.08735703694268</v>
+      </c>
+      <c r="M10">
+        <v>21.21925735938641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.75199952301039</v>
+        <v>29.50504781101535</v>
       </c>
       <c r="C11">
-        <v>35.20810993484444</v>
+        <v>35.00072675686437</v>
       </c>
       <c r="D11">
-        <v>9.039349159537197</v>
+        <v>9.008797797040566</v>
       </c>
       <c r="E11">
-        <v>5.941726801471871</v>
+        <v>5.837165471411809</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.959865804211795</v>
       </c>
       <c r="H11">
-        <v>83.59441633511631</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>5.267525643615181</v>
+        <v>83.50293525352615</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.18394743834173</v>
       </c>
       <c r="K11">
-        <v>14.63468374079092</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>22.37129550849296</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>14.60724835757002</v>
+      </c>
+      <c r="M11">
+        <v>22.22609929622967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.30345598375208</v>
+        <v>30.05073346145877</v>
       </c>
       <c r="C12">
-        <v>35.80632263350817</v>
+        <v>35.59267075033924</v>
       </c>
       <c r="D12">
-        <v>9.185926530876914</v>
+        <v>9.154470934025847</v>
       </c>
       <c r="E12">
-        <v>5.969885119617784</v>
+        <v>5.865908983736944</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.952353099224263</v>
       </c>
       <c r="H12">
-        <v>84.83666747029984</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>5.296233187956513</v>
+        <v>84.73410316943439</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.212624063951045</v>
       </c>
       <c r="K12">
-        <v>14.83612453341561</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>22.75798673087955</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>14.80656708675104</v>
+      </c>
+      <c r="M12">
+        <v>22.60979662891423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.18434779124708</v>
+        <v>29.93287996738423</v>
       </c>
       <c r="C13">
-        <v>35.67726368595696</v>
+        <v>35.46497249420355</v>
       </c>
       <c r="D13">
-        <v>9.153306287463883</v>
+        <v>9.122058016501258</v>
       </c>
       <c r="E13">
-        <v>5.963769691971746</v>
+        <v>5.859668663081348</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.953980381667662</v>
       </c>
       <c r="H13">
-        <v>84.56869916523534</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>5.290001305820252</v>
+        <v>84.46854283995091</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.206400178696391</v>
       </c>
       <c r="K13">
-        <v>14.7926111455944</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>22.67455106264664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>14.76351426913245</v>
+      </c>
+      <c r="M13">
+        <v>22.52701475303319</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.7972201320092</v>
+        <v>29.54979876436856</v>
       </c>
       <c r="C14">
-        <v>35.25723035492786</v>
+        <v>35.04933600930926</v>
       </c>
       <c r="D14">
-        <v>9.050200005268522</v>
+        <v>9.019578507739213</v>
       </c>
       <c r="E14">
-        <v>5.944020828170742</v>
+        <v>5.839508143591178</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.959251806984436</v>
       </c>
       <c r="H14">
-        <v>83.69643478456203</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>5.269865792249796</v>
+        <v>83.60405095623761</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.186285628807507</v>
       </c>
       <c r="K14">
-        <v>14.65119978136774</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>22.4030428774612</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>14.62359134409056</v>
+      </c>
+      <c r="M14">
+        <v>22.25760427994355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.56102392056832</v>
+        <v>29.3160490593555</v>
       </c>
       <c r="C15">
-        <v>35.00053563512127</v>
+        <v>34.79530595407323</v>
       </c>
       <c r="D15">
-        <v>8.993525513410077</v>
+        <v>8.963267994004447</v>
       </c>
       <c r="E15">
-        <v>5.932068629993047</v>
+        <v>5.827300598578877</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.96245475932082</v>
       </c>
       <c r="H15">
-        <v>83.16327999454298</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>5.257670105102304</v>
+        <v>83.07560003979393</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.174099065517812</v>
       </c>
       <c r="K15">
-        <v>14.56494023954055</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>22.23714541881713</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>14.53823392296336</v>
+      </c>
+      <c r="M15">
+        <v>22.09296691061463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.21889177725911</v>
+        <v>27.98754811611779</v>
       </c>
       <c r="C16">
-        <v>33.53590879921598</v>
+        <v>33.34561143268018</v>
       </c>
       <c r="D16">
-        <v>8.671676534618628</v>
+        <v>8.643382282814702</v>
       </c>
       <c r="E16">
-        <v>5.865596427134834</v>
+        <v>5.759321484745874</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.980461818742444</v>
       </c>
       <c r="H16">
-        <v>80.12059621134644</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>5.189649397859293</v>
+        <v>80.05917383406963</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.106081360824781</v>
       </c>
       <c r="K16">
-        <v>14.07532325159869</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>21.29095708349073</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>14.05367029802886</v>
+      </c>
+      <c r="M16">
+        <v>21.15367907544787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.40298423146996</v>
+        <v>27.17975145120359</v>
       </c>
       <c r="C17">
-        <v>32.64058902812178</v>
+        <v>32.45924353778555</v>
       </c>
       <c r="D17">
-        <v>8.476334102876409</v>
+        <v>8.449152561368511</v>
       </c>
       <c r="E17">
-        <v>5.826434908349986</v>
+        <v>5.719201495774718</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.991246332853604</v>
       </c>
       <c r="H17">
-        <v>78.26072402210252</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>5.149352859276402</v>
+        <v>78.21494919334233</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.065749651794204</v>
       </c>
       <c r="K17">
-        <v>13.77839747528785</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>20.71281736437665</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>13.75976905022747</v>
+      </c>
+      <c r="M17">
+        <v>20.57954156772068</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.93547556502652</v>
+        <v>26.71684798244523</v>
       </c>
       <c r="C18">
-        <v>32.12591339715428</v>
+        <v>31.94967178965831</v>
       </c>
       <c r="D18">
-        <v>8.364574445240267</v>
+        <v>8.338005089300866</v>
       </c>
       <c r="E18">
-        <v>5.804439435690526</v>
+        <v>5.696643861482473</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.997369801268503</v>
       </c>
       <c r="H18">
-        <v>77.19186426010604</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>5.126619887615619</v>
+        <v>77.15497523686007</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.042985143557551</v>
       </c>
       <c r="K18">
-        <v>13.60861760754815</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>20.38054073259068</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>13.59171052276828</v>
+      </c>
+      <c r="M18">
+        <v>20.24950043406422</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.77741034651242</v>
+        <v>26.56033436917988</v>
       </c>
       <c r="C19">
-        <v>31.95162856878661</v>
+        <v>31.77710993275483</v>
       </c>
       <c r="D19">
-        <v>8.326822420990192</v>
+        <v>8.300456034588983</v>
       </c>
       <c r="E19">
-        <v>5.797077571812256</v>
+        <v>5.689089922713421</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.999430872708297</v>
       </c>
       <c r="H19">
-        <v>76.82998755663209</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>5.118992399186483</v>
+        <v>76.7960919863297</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.035345217390557</v>
       </c>
       <c r="K19">
-        <v>13.55128415073518</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>20.26803078290117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>13.53495750621456</v>
+      </c>
+      <c r="M19">
+        <v>20.13773745834308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.48963506284053</v>
+        <v>27.26554572752134</v>
       </c>
       <c r="C20">
-        <v>32.73584932876293</v>
+        <v>32.55355619575053</v>
       </c>
       <c r="D20">
-        <v>8.497063364026362</v>
+        <v>8.46976636829179</v>
       </c>
       <c r="E20">
-        <v>5.830547609880317</v>
+        <v>5.723417386069377</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.990106879330725</v>
       </c>
       <c r="H20">
-        <v>78.45858614897898</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>5.153594809063067</v>
+        <v>78.41115854486617</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.069996561046941</v>
       </c>
       <c r="K20">
-        <v>13.80989656018617</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>20.77432269199435</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>13.79094825097562</v>
+      </c>
+      <c r="M20">
+        <v>20.64062810047374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.9107275873909</v>
+        <v>29.66212463109749</v>
       </c>
       <c r="C21">
-        <v>35.38047504202896</v>
+        <v>35.17129544412539</v>
       </c>
       <c r="D21">
-        <v>9.078259913541052</v>
+        <v>9.047481963803875</v>
       </c>
       <c r="E21">
-        <v>5.949790920073493</v>
+        <v>5.845399829066772</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.957708998022181</v>
       </c>
       <c r="H21">
-        <v>83.9523917097908</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>5.275750705948831</v>
+        <v>83.85773725388674</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.19216518018077</v>
       </c>
       <c r="K21">
-        <v>14.69265882327053</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>22.48270158241556</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>14.66461527551932</v>
+      </c>
+      <c r="M21">
+        <v>22.33665216744128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.53203207923547</v>
+        <v>31.2660623677272</v>
       </c>
       <c r="C22">
-        <v>37.13274071921608</v>
+        <v>36.90479960206967</v>
       </c>
       <c r="D22">
-        <v>9.520691142736283</v>
+        <v>9.486999478713297</v>
       </c>
       <c r="E22">
-        <v>6.034011465737591</v>
+        <v>5.931272014358067</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.935420842537358</v>
       </c>
       <c r="H22">
-        <v>87.5891674769836</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>5.361530329566428</v>
+        <v>87.46124851467593</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.277793113423429</v>
       </c>
       <c r="K22">
-        <v>15.32633900124154</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>23.61587239992592</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>15.26237262929936</v>
+      </c>
+      <c r="M22">
+        <v>23.46068862716096</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.66176532516233</v>
+        <v>30.40523882912411</v>
       </c>
       <c r="C23">
-        <v>36.19407270498278</v>
+        <v>35.97630320500381</v>
       </c>
       <c r="D23">
-        <v>9.283881466847408</v>
+        <v>9.251792430140453</v>
       </c>
       <c r="E23">
-        <v>5.988391735961921</v>
+        <v>5.884786152757799</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.947442512681947</v>
       </c>
       <c r="H23">
-        <v>85.64162055926545</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>5.315084998515269</v>
+        <v>85.53176225885726</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.231447273257326</v>
       </c>
       <c r="K23">
-        <v>14.9670303423806</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>23.00870086600748</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>14.93607940912264</v>
+      </c>
+      <c r="M23">
+        <v>22.85851920911612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.45045556352865</v>
+        <v>27.2267536494121</v>
       </c>
       <c r="C24">
-        <v>32.69278217948852</v>
+        <v>32.51091760126739</v>
       </c>
       <c r="D24">
-        <v>8.487690007715724</v>
+        <v>8.460445293208908</v>
       </c>
       <c r="E24">
-        <v>5.828686656138465</v>
+        <v>5.721509814958367</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.990622261201612</v>
       </c>
       <c r="H24">
-        <v>78.36913178742674</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>5.151675690708389</v>
+        <v>78.3224517334254</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.068075235233925</v>
       </c>
       <c r="K24">
-        <v>13.79565299805689</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>20.74651595037795</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>13.77684936077961</v>
+      </c>
+      <c r="M24">
+        <v>20.61301089551928</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.04934373676199</v>
+        <v>23.85889850214788</v>
       </c>
       <c r="C25">
-        <v>28.92227965968187</v>
+        <v>28.77757117669805</v>
       </c>
       <c r="D25">
-        <v>7.679202367834022</v>
+        <v>7.656046753940769</v>
       </c>
       <c r="E25">
-        <v>5.676298153743166</v>
+        <v>5.564858685329554</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.034255065434297</v>
       </c>
       <c r="H25">
-        <v>70.55054961467715</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>4.991978015337643</v>
+        <v>70.56787150708654</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.907991297508396</v>
       </c>
       <c r="K25">
-        <v>12.5694352226282</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>18.31268956734555</v>
+        <v>12.56306726158282</v>
+      </c>
+      <c r="M25">
+        <v>18.19469522811407</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.35504875506458</v>
+        <v>26.40643382568521</v>
       </c>
       <c r="C2">
-        <v>25.96260299459624</v>
+        <v>13.78880803175527</v>
       </c>
       <c r="D2">
-        <v>7.068797632758287</v>
+        <v>7.103158786271043</v>
       </c>
       <c r="E2">
-        <v>5.461021278444607</v>
+        <v>5.60607246098086</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.065256173088351</v>
+        <v>2.092528624073709</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>64.7542982390688</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.797503411554843</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>21.11386352354469</v>
       </c>
       <c r="L2">
-        <v>11.68184835532666</v>
+        <v>7.603640484097987</v>
       </c>
       <c r="M2">
-        <v>16.36881464046602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>15.39732307094517</v>
+      </c>
+      <c r="O2">
+        <v>33.9540319198234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.61808335556675</v>
+        <v>24.74128332662677</v>
       </c>
       <c r="C3">
-        <v>23.99128406960827</v>
+        <v>12.79525063658071</v>
       </c>
       <c r="D3">
-        <v>6.670460507665505</v>
+        <v>6.586716184476332</v>
       </c>
       <c r="E3">
-        <v>5.396074229468225</v>
+        <v>5.614590524276745</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.086039468531039</v>
+        <v>2.105748901797048</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>60.71210187817557</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.725088357955333</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>19.69347306201194</v>
       </c>
       <c r="L3">
-        <v>11.08739003711934</v>
+        <v>7.351029293601751</v>
       </c>
       <c r="M3">
-        <v>15.08655590308029</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>15.49987562814423</v>
+      </c>
+      <c r="O3">
+        <v>32.63375871556099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.5259212353287</v>
+        <v>23.68920805696352</v>
       </c>
       <c r="C4">
-        <v>22.79283171828337</v>
+        <v>12.15696388468369</v>
       </c>
       <c r="D4">
-        <v>6.425157286064029</v>
+        <v>6.265851348229733</v>
       </c>
       <c r="E4">
-        <v>5.358439967558091</v>
+        <v>5.622064440525886</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.098806845440813</v>
+        <v>2.114011883507581</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>58.17202187932116</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.681321002034579</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.85471228077049</v>
       </c>
       <c r="L4">
-        <v>10.72296071610245</v>
+        <v>7.198544088146229</v>
       </c>
       <c r="M4">
-        <v>14.52845499802853</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>15.56907715395045</v>
+      </c>
+      <c r="O4">
+        <v>31.8343885943235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.07372470475122</v>
+        <v>23.25319721131244</v>
       </c>
       <c r="C5">
-        <v>22.29629361711851</v>
+        <v>11.88957742843445</v>
       </c>
       <c r="D5">
-        <v>6.324984006562541</v>
+        <v>6.149102328264277</v>
       </c>
       <c r="E5">
-        <v>5.343614430090627</v>
+        <v>5.625655745045291</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.104025869146726</v>
+        <v>2.117420000770431</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>57.12156183350562</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4.663597059638951</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.50716524271882</v>
       </c>
       <c r="L5">
-        <v>10.5745542649972</v>
+        <v>7.137096978585306</v>
       </c>
       <c r="M5">
-        <v>14.31458445086841</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>15.59875713200803</v>
+      </c>
+      <c r="O5">
+        <v>31.51159503946388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.99819022155415</v>
+        <v>23.1803655198517</v>
       </c>
       <c r="C6">
-        <v>22.21334019516894</v>
+        <v>11.84473351425318</v>
       </c>
       <c r="D6">
-        <v>6.308337595295413</v>
+        <v>6.129601173259053</v>
       </c>
       <c r="E6">
-        <v>5.34118209435843</v>
+        <v>5.626284515168699</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.104893849301898</v>
+        <v>2.117988502286725</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>56.94619130993885</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4.660659096181909</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.44911414715241</v>
       </c>
       <c r="L6">
-        <v>10.54991750495467</v>
+        <v>7.126936624793188</v>
       </c>
       <c r="M6">
-        <v>14.27917022603062</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>15.6037724631014</v>
+      </c>
+      <c r="O6">
+        <v>31.45817836803771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.51985241381135</v>
+        <v>23.68335702894192</v>
       </c>
       <c r="C7">
-        <v>22.78616878209209</v>
+        <v>12.15338751696139</v>
       </c>
       <c r="D7">
-        <v>6.423807171870317</v>
+        <v>6.264284587894624</v>
       </c>
       <c r="E7">
-        <v>5.358238022088524</v>
+        <v>5.622110688464902</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.098877147649922</v>
+        <v>2.114057675690082</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>58.1579179081879</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4.681081595032443</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.85004815236369</v>
       </c>
       <c r="L7">
-        <v>10.720958856643</v>
+        <v>7.197712540507554</v>
       </c>
       <c r="M7">
-        <v>14.52556403425361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>15.5694715457868</v>
+      </c>
+      <c r="O7">
+        <v>31.83002312479963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.76100729940348</v>
+        <v>25.83851993820627</v>
       </c>
       <c r="C8">
-        <v>25.2899407764956</v>
+        <v>13.45197781491845</v>
       </c>
       <c r="D8">
-        <v>6.931569623512345</v>
+        <v>6.92811652111905</v>
       </c>
       <c r="E8">
-        <v>5.438127028539022</v>
+        <v>5.608532144165744</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.072430484630194</v>
+        <v>2.097059431976586</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>63.37206625969641</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4.772348616872143</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>20.59140678730565</v>
       </c>
       <c r="L8">
-        <v>11.47671571047707</v>
+        <v>7.516013978472698</v>
       </c>
       <c r="M8">
-        <v>15.931807924126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>15.43133339593102</v>
+      </c>
+      <c r="O8">
+        <v>33.49651442237504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.99302457125177</v>
+        <v>29.89178521618452</v>
       </c>
       <c r="C9">
-        <v>30.04167011928211</v>
+        <v>15.78342890490175</v>
       </c>
       <c r="D9">
-        <v>7.925584524726756</v>
+        <v>8.138775765874941</v>
       </c>
       <c r="E9">
-        <v>5.615557989277539</v>
+        <v>5.600629405396528</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.019808305223308</v>
+        <v>2.064665481332031</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>73.18975883748365</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>4.960422069744441</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>24.20938859169</v>
       </c>
       <c r="L9">
-        <v>12.96905746121561</v>
+        <v>8.160047524373622</v>
       </c>
       <c r="M9">
-        <v>19.01369891486197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>15.21443752661045</v>
+      </c>
+      <c r="O9">
+        <v>36.85221520384269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.08001981122895</v>
+        <v>32.88567821035044</v>
       </c>
       <c r="C10">
-        <v>33.44684343078744</v>
+        <v>17.37942222186383</v>
       </c>
       <c r="D10">
-        <v>8.665633836506153</v>
+        <v>8.966031002830523</v>
       </c>
       <c r="E10">
-        <v>5.7639740379586</v>
+        <v>5.607670737108261</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.979219299371162</v>
+        <v>2.041092023123486</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>80.26982200617496</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>5.11074763198652</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>26.68592019796778</v>
       </c>
       <c r="L10">
-        <v>14.08735703694268</v>
+        <v>8.64510147098018</v>
       </c>
       <c r="M10">
-        <v>21.21925735938641</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>15.09534682242213</v>
+      </c>
+      <c r="O10">
+        <v>39.37518897939602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.50504781101535</v>
+        <v>34.20975175575515</v>
       </c>
       <c r="C11">
-        <v>35.00072675686437</v>
+        <v>18.08383558208032</v>
       </c>
       <c r="D11">
-        <v>9.008797797040566</v>
+        <v>9.330668087072699</v>
       </c>
       <c r="E11">
-        <v>5.837165471411809</v>
+        <v>5.614033761400637</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.959865804211795</v>
+        <v>2.030324251883781</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>83.50293525352615</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>5.18394743834173</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>27.77823360917617</v>
       </c>
       <c r="L11">
-        <v>14.60724835757002</v>
+        <v>8.8686639605734</v>
       </c>
       <c r="M11">
-        <v>22.22609929622967</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>15.05190968322361</v>
+      </c>
+      <c r="O11">
+        <v>40.53853603726409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.05073346145877</v>
+        <v>34.7062561708071</v>
       </c>
       <c r="C12">
-        <v>35.59267075033924</v>
+        <v>18.34784083054955</v>
       </c>
       <c r="D12">
-        <v>9.154470934025847</v>
+        <v>9.467243215317456</v>
       </c>
       <c r="E12">
-        <v>5.865908983736944</v>
+        <v>5.616933708987382</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.952353099224263</v>
+        <v>2.026231164486816</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>84.73410316943439</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>5.212624063951045</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>28.1874485881574</v>
       </c>
       <c r="L12">
-        <v>14.80656708675104</v>
+        <v>8.953795475069454</v>
       </c>
       <c r="M12">
-        <v>22.60979662891423</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>15.03720722739879</v>
+      </c>
+      <c r="O12">
+        <v>40.98174655929252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.93287996738423</v>
+        <v>34.5995326812868</v>
       </c>
       <c r="C13">
-        <v>35.46497249420355</v>
+        <v>18.29109798703138</v>
       </c>
       <c r="D13">
-        <v>9.122058016501258</v>
+        <v>9.437893168134734</v>
       </c>
       <c r="E13">
-        <v>5.859668663081348</v>
+        <v>5.616286712192756</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.953980381667662</v>
+        <v>2.027113540152423</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>84.46854283995091</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>5.206400178696391</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>28.09950439371857</v>
       </c>
       <c r="L13">
-        <v>14.76351426913245</v>
+        <v>8.935438661247053</v>
       </c>
       <c r="M13">
-        <v>22.52701475303319</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>15.04029241463226</v>
+      </c>
+      <c r="O13">
+        <v>40.88616563286461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.54979876436856</v>
+        <v>34.25069397688085</v>
       </c>
       <c r="C14">
-        <v>35.04933600930926</v>
+        <v>18.10560806776253</v>
       </c>
       <c r="D14">
-        <v>9.019578507739213</v>
+        <v>9.34193326651682</v>
       </c>
       <c r="E14">
-        <v>5.839508143591178</v>
+        <v>5.614262288290733</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.959251806984436</v>
+        <v>2.029987881500959</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>83.60405095623761</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>5.186285628807507</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>27.81198534379311</v>
       </c>
       <c r="L14">
-        <v>14.62359134409056</v>
+        <v>8.875657884053959</v>
       </c>
       <c r="M14">
-        <v>22.25760427994355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>15.05066382691388</v>
+      </c>
+      <c r="O14">
+        <v>40.57494256029775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.3160490593555</v>
+        <v>34.03640123881541</v>
       </c>
       <c r="C15">
-        <v>34.79530595407323</v>
+        <v>17.99164510435787</v>
       </c>
       <c r="D15">
-        <v>8.963267994004447</v>
+        <v>9.282964722625824</v>
       </c>
       <c r="E15">
-        <v>5.827300598578877</v>
+        <v>5.613087293727039</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.96245475932082</v>
+        <v>2.031746171153062</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>83.07560003979393</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>5.174099065517812</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>27.63531250527914</v>
       </c>
       <c r="L15">
-        <v>14.53823392296336</v>
+        <v>8.839104160618559</v>
       </c>
       <c r="M15">
-        <v>22.09296691061463</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>15.05725060474145</v>
+      </c>
+      <c r="O15">
+        <v>40.38467345915994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.98754811611779</v>
+        <v>32.79842954350634</v>
       </c>
       <c r="C16">
-        <v>33.34561143268018</v>
+        <v>17.33298232683893</v>
       </c>
       <c r="D16">
-        <v>8.643382282814702</v>
+        <v>8.941980361543674</v>
       </c>
       <c r="E16">
-        <v>5.759321484745874</v>
+        <v>5.60732144760413</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.980461818742444</v>
+        <v>2.041794080644998</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>80.05917383406963</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>5.106081360824781</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>26.61388680410823</v>
       </c>
       <c r="L16">
-        <v>14.05367029802886</v>
+        <v>8.630553761396028</v>
       </c>
       <c r="M16">
-        <v>21.15367907544787</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>15.09841814781234</v>
+      </c>
+      <c r="O16">
+        <v>39.29950907143721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.17975145120359</v>
+        <v>32.02963364615859</v>
       </c>
       <c r="C17">
-        <v>32.45924353778555</v>
+        <v>16.92362214242975</v>
       </c>
       <c r="D17">
-        <v>8.449152561368511</v>
+        <v>8.729921255310501</v>
       </c>
       <c r="E17">
-        <v>5.719201495774718</v>
+        <v>5.604617683260664</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.991246332853604</v>
+        <v>2.047940753548349</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>78.21494919334233</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>5.065749651794204</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>25.9788326558047</v>
       </c>
       <c r="L17">
-        <v>13.75976905022747</v>
+        <v>8.503390734693783</v>
       </c>
       <c r="M17">
-        <v>20.57954156772068</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>15.12655702284472</v>
+      </c>
+      <c r="O17">
+        <v>38.63805529223976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.71684798244523</v>
+        <v>31.58383937412264</v>
       </c>
       <c r="C18">
-        <v>31.94967178965831</v>
+        <v>16.68610972028216</v>
       </c>
       <c r="D18">
-        <v>8.338005089300866</v>
+        <v>8.606838670244287</v>
       </c>
       <c r="E18">
-        <v>5.696643861482473</v>
+        <v>5.60335754454554</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.997369801268503</v>
+        <v>2.051472640679266</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>77.15497523686007</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>5.042985143557551</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>25.6103053648315</v>
       </c>
       <c r="L18">
-        <v>13.59171052276828</v>
+        <v>8.430518954336542</v>
       </c>
       <c r="M18">
-        <v>20.24950043406422</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>15.14373855885513</v>
+      </c>
+      <c r="O18">
+        <v>38.25904154433864</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.56033436917988</v>
+        <v>31.43226725116287</v>
       </c>
       <c r="C19">
-        <v>31.77710993275483</v>
+        <v>16.60532815073144</v>
       </c>
       <c r="D19">
-        <v>8.300456034588983</v>
+        <v>8.564969147215244</v>
       </c>
       <c r="E19">
-        <v>5.689089922713421</v>
+        <v>5.602980532323423</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.999430872708297</v>
+        <v>2.052668130076641</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>76.7960919863297</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>5.035345217390557</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>25.48495415029228</v>
       </c>
       <c r="L19">
-        <v>13.53495750621456</v>
+        <v>8.405890783469214</v>
       </c>
       <c r="M19">
-        <v>20.13773745834308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>15.14972150040713</v>
+      </c>
+      <c r="O19">
+        <v>38.13095032196608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.26554572752134</v>
+        <v>32.11184256414897</v>
       </c>
       <c r="C20">
-        <v>32.55355619575053</v>
+        <v>16.96740988426138</v>
       </c>
       <c r="D20">
-        <v>8.46976636829179</v>
+        <v>8.752609189292642</v>
       </c>
       <c r="E20">
-        <v>5.723417386069377</v>
+        <v>5.604874727916683</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.990106879330725</v>
+        <v>2.047286855721302</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>78.41115854486617</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>5.069996561046941</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>26.04676933566845</v>
       </c>
       <c r="L20">
-        <v>13.79094825097562</v>
+        <v>8.516899299603548</v>
       </c>
       <c r="M20">
-        <v>20.64062810047374</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>15.12345706685132</v>
+      </c>
+      <c r="O20">
+        <v>38.7083168614125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.66212463109749</v>
+        <v>34.35328420150633</v>
       </c>
       <c r="C21">
-        <v>35.17129544412539</v>
+        <v>18.16016211663972</v>
       </c>
       <c r="D21">
-        <v>9.047481963803875</v>
+        <v>9.370158328786037</v>
       </c>
       <c r="E21">
-        <v>5.845399829066772</v>
+        <v>5.614843287971038</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.957708998022181</v>
+        <v>2.029144121521368</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>83.85773725388674</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>5.19216518018077</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>27.89655214638145</v>
       </c>
       <c r="L21">
-        <v>14.66461527551932</v>
+        <v>8.893203528872085</v>
       </c>
       <c r="M21">
-        <v>22.33665216744128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>15.04756831910596</v>
+      </c>
+      <c r="O21">
+        <v>40.66627946035904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.2660623677272</v>
+        <v>35.7900154731344</v>
       </c>
       <c r="C22">
-        <v>36.90479960206967</v>
+        <v>18.92393517047991</v>
       </c>
       <c r="D22">
-        <v>9.486999478713297</v>
+        <v>9.765092189628948</v>
       </c>
       <c r="E22">
-        <v>5.931272014358067</v>
+        <v>5.624237517754553</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.935420842537358</v>
+        <v>2.017190589058481</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>87.46124851467593</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>5.277793113423429</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>29.08002849539485</v>
       </c>
       <c r="L22">
-        <v>15.26237262929936</v>
+        <v>9.141944801972899</v>
       </c>
       <c r="M22">
-        <v>23.46068862716096</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>15.00826869753204</v>
+      </c>
+      <c r="O22">
+        <v>41.9618427453055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.40523882912411</v>
+        <v>35.02557023051929</v>
       </c>
       <c r="C23">
-        <v>35.97630320500381</v>
+        <v>18.51759959620415</v>
       </c>
       <c r="D23">
-        <v>9.251792430140453</v>
+        <v>9.555036527898665</v>
       </c>
       <c r="E23">
-        <v>5.884786152757799</v>
+        <v>5.618946864902806</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.947442512681947</v>
+        <v>2.023582690632736</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>85.53176225885726</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>5.231447273257326</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>28.45052339901651</v>
       </c>
       <c r="L23">
-        <v>14.93607940912264</v>
+        <v>9.008904701564957</v>
       </c>
       <c r="M23">
-        <v>22.85851920911612</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>15.02822537530498</v>
+      </c>
+      <c r="O23">
+        <v>41.2687337013539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.2267536494121</v>
+        <v>32.0746877986946</v>
       </c>
       <c r="C24">
-        <v>32.51091760126739</v>
+        <v>16.94762021895755</v>
       </c>
       <c r="D24">
-        <v>8.460445293208908</v>
+        <v>8.742355622030749</v>
       </c>
       <c r="E24">
-        <v>5.721509814958367</v>
+        <v>5.604757604010099</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.990622261201612</v>
+        <v>2.047582488226414</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>78.3224517334254</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>5.068075235233925</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>26.01606587167272</v>
       </c>
       <c r="L24">
-        <v>13.77684936077961</v>
+        <v>8.510791346264099</v>
       </c>
       <c r="M24">
-        <v>20.61301089551928</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>15.12485544425327</v>
+      </c>
+      <c r="O24">
+        <v>38.67654769642556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.85889850214788</v>
+        <v>28.77351667743436</v>
       </c>
       <c r="C25">
-        <v>28.77757117669805</v>
+        <v>15.1743774449635</v>
       </c>
       <c r="D25">
-        <v>7.656046753940769</v>
+        <v>7.822737102713936</v>
       </c>
       <c r="E25">
-        <v>5.564858685329554</v>
+        <v>5.600624528365675</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.034255065434297</v>
+        <v>2.073361240356532</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>70.56787150708654</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4.907991297508396</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>23.26404481703594</v>
       </c>
       <c r="L25">
-        <v>12.56306726158282</v>
+        <v>7.983773774528512</v>
       </c>
       <c r="M25">
-        <v>18.19469522811407</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>15.26664098172036</v>
+      </c>
+      <c r="O25">
+        <v>35.93494771072569</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.40643382568521</v>
+        <v>15.12298842269271</v>
       </c>
       <c r="C2">
-        <v>13.78880803175527</v>
+        <v>11.30427471648062</v>
       </c>
       <c r="D2">
-        <v>7.103158786271043</v>
+        <v>7.16187070110781</v>
       </c>
       <c r="E2">
-        <v>5.60607246098086</v>
+        <v>29.56934845085521</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.092528624073709</v>
+        <v>36.89313550612845</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>11.40713349588039</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>17.04812889248491</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>21.11386352354469</v>
+        <v>14.30598107503402</v>
       </c>
       <c r="L2">
-        <v>7.603640484097987</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.39732307094517</v>
+        <v>12.41783022535398</v>
       </c>
       <c r="O2">
-        <v>33.9540319198234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.74128332662677</v>
+        <v>14.07838259550721</v>
       </c>
       <c r="C3">
-        <v>12.79525063658071</v>
+        <v>10.50312373530291</v>
       </c>
       <c r="D3">
-        <v>6.586716184476332</v>
+        <v>6.658378142161668</v>
       </c>
       <c r="E3">
-        <v>5.614590524276745</v>
+        <v>27.39513748426362</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.105748901797048</v>
+        <v>35.31988637919051</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11.24611074924427</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.82209453900107</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.69347306201194</v>
+        <v>13.3479669934173</v>
       </c>
       <c r="L3">
-        <v>7.351029293601751</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.49987562814423</v>
+        <v>12.63834158027797</v>
       </c>
       <c r="O3">
-        <v>32.63375871556099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.68920805696352</v>
+        <v>13.402372734768</v>
       </c>
       <c r="C4">
-        <v>12.15696388468369</v>
+        <v>9.986282443815155</v>
       </c>
       <c r="D4">
-        <v>6.265851348229733</v>
+        <v>6.332835297633448</v>
       </c>
       <c r="E4">
-        <v>5.622064440525886</v>
+        <v>25.99980911304069</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.114011883507581</v>
+        <v>34.36422656836299</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>11.15639404810154</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.69867854905329</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.85471228077049</v>
+        <v>12.72927382682502</v>
       </c>
       <c r="L4">
-        <v>7.198544088146229</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.56907715395045</v>
+        <v>12.77719402547172</v>
       </c>
       <c r="O4">
-        <v>31.8343885943235</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.25319721131244</v>
+        <v>13.1180880686094</v>
       </c>
       <c r="C5">
-        <v>11.88957742843445</v>
+        <v>9.769294850831654</v>
       </c>
       <c r="D5">
-        <v>6.149102328264277</v>
+        <v>6.205507562528916</v>
       </c>
       <c r="E5">
-        <v>5.625655745045291</v>
+        <v>25.41563098251811</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.117420000770431</v>
+        <v>33.97774107180553</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>11.12206176166839</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.65210744439144</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.50716524271882</v>
+        <v>12.46941304227996</v>
       </c>
       <c r="L5">
-        <v>7.137096978585306</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.59875713200803</v>
+        <v>12.8346553205248</v>
       </c>
       <c r="O5">
-        <v>31.51159503946388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.1803655198517</v>
+        <v>13.07034818062245</v>
       </c>
       <c r="C6">
-        <v>11.84473351425318</v>
+        <v>9.732876606898238</v>
       </c>
       <c r="D6">
-        <v>6.129601173259053</v>
+        <v>6.186059829045359</v>
       </c>
       <c r="E6">
-        <v>5.626284515168699</v>
+        <v>25.31767725213754</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.117988502286725</v>
+        <v>33.91375531417389</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>11.116493289603</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.64459488000261</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.44911414715241</v>
+        <v>12.42579395206165</v>
       </c>
       <c r="L6">
-        <v>7.126936624793188</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.6037724631014</v>
+        <v>12.8442500117462</v>
       </c>
       <c r="O6">
-        <v>31.45817836803771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.68335702894192</v>
+        <v>13.3985745529082</v>
       </c>
       <c r="C7">
-        <v>12.15338751696139</v>
+        <v>9.983381997408795</v>
       </c>
       <c r="D7">
-        <v>6.264284587894624</v>
+        <v>6.331006858390154</v>
       </c>
       <c r="E7">
-        <v>5.622110688464902</v>
+        <v>25.99199422732221</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.114057675690082</v>
+        <v>34.35900181863089</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>11.15592210827031</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.698035596899</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.85004815236369</v>
+        <v>12.72580067916758</v>
       </c>
       <c r="L7">
-        <v>7.197712540507554</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.5694715457868</v>
+        <v>12.77796540233907</v>
       </c>
       <c r="O7">
-        <v>31.83002312479963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.83851993820627</v>
+        <v>14.76993100395265</v>
       </c>
       <c r="C8">
-        <v>13.45197781491845</v>
+        <v>11.03314935662786</v>
       </c>
       <c r="D8">
-        <v>6.92811652111905</v>
+        <v>6.991638367153677</v>
       </c>
       <c r="E8">
-        <v>5.608532144165744</v>
+        <v>28.83196029550507</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.097059431976586</v>
+        <v>36.34873393798796</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>11.34966980911535</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16.96691730309611</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.59140678730565</v>
+        <v>13.98193195363351</v>
       </c>
       <c r="L8">
-        <v>7.516013978472698</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.43133339593102</v>
+        <v>12.4931495151386</v>
       </c>
       <c r="O8">
-        <v>33.49651442237504</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.89178521618452</v>
+        <v>17.18933289250645</v>
       </c>
       <c r="C9">
-        <v>15.78342890490175</v>
+        <v>12.89884835197102</v>
       </c>
       <c r="D9">
-        <v>8.138775765874941</v>
+        <v>8.159449054475848</v>
       </c>
       <c r="E9">
-        <v>5.600629405396528</v>
+        <v>33.94175808350884</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.064665481332031</v>
+        <v>40.3202092962165</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.80545892466325</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>17.62241006446745</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>24.20938859169</v>
+        <v>16.20749593682125</v>
       </c>
       <c r="L9">
-        <v>8.160047524373622</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.21443752661045</v>
+        <v>11.96176876140757</v>
       </c>
       <c r="O9">
-        <v>36.85221520384269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.88567821035044</v>
+        <v>18.80967906423262</v>
       </c>
       <c r="C10">
-        <v>17.37942222186383</v>
+        <v>14.15946610448369</v>
       </c>
       <c r="D10">
-        <v>8.966031002830523</v>
+        <v>8.943184360733101</v>
       </c>
       <c r="E10">
-        <v>5.607670737108261</v>
+        <v>37.44621549341085</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.041092023123486</v>
+        <v>43.27012213196462</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>12.1910841201961</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>18.19075669533249</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>26.68592019796778</v>
+        <v>17.70419854129938</v>
       </c>
       <c r="L10">
-        <v>8.64510147098018</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.09534682242213</v>
+        <v>11.58769600294973</v>
       </c>
       <c r="O10">
-        <v>39.37518897939602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.20975175575515</v>
+        <v>19.51447366196003</v>
       </c>
       <c r="C11">
-        <v>18.08383558208032</v>
+        <v>14.71090524777205</v>
       </c>
       <c r="D11">
-        <v>9.330668087072699</v>
+        <v>9.284466844187659</v>
       </c>
       <c r="E11">
-        <v>5.614033761400637</v>
+        <v>38.99407185637151</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.030324251883781</v>
+        <v>44.6188232716768</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.3785747849617</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>18.47006447155296</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>27.77823360917617</v>
+        <v>18.35671306152906</v>
       </c>
       <c r="L11">
-        <v>8.8686639605734</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.05190968322361</v>
+        <v>11.42110417412486</v>
       </c>
       <c r="O11">
-        <v>40.53853603726409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.7062561708071</v>
+        <v>19.77687958806696</v>
       </c>
       <c r="C12">
-        <v>18.34784083054955</v>
+        <v>14.91672828307492</v>
       </c>
       <c r="D12">
-        <v>9.467243215317456</v>
+        <v>9.411588307708826</v>
       </c>
       <c r="E12">
-        <v>5.616933708987382</v>
+        <v>39.57429628643891</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.026231164486816</v>
+        <v>45.1306329398322</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.45140210315003</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>18.57898536953307</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>28.1874485881574</v>
+        <v>18.59988711319833</v>
       </c>
       <c r="L12">
-        <v>8.953795475069454</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.03720722739879</v>
+        <v>11.35854627201273</v>
       </c>
       <c r="O12">
-        <v>40.98174655929252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.5995326812868</v>
+        <v>19.7205624691401</v>
       </c>
       <c r="C13">
-        <v>18.29109798703138</v>
+        <v>14.87253085975397</v>
       </c>
       <c r="D13">
-        <v>9.437893168134734</v>
+        <v>9.384303175723787</v>
       </c>
       <c r="E13">
-        <v>5.616286712192756</v>
+        <v>39.44958458880004</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.027113540152423</v>
+        <v>45.02035421804639</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.43563450274676</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>18.55538424479265</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>28.09950439371857</v>
+        <v>18.54768682424463</v>
       </c>
       <c r="L13">
-        <v>8.935438661247053</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.04029241463226</v>
+        <v>11.37199551961533</v>
       </c>
       <c r="O13">
-        <v>40.88616563286461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.25069397688085</v>
+        <v>19.53615084504217</v>
       </c>
       <c r="C14">
-        <v>18.10560806776253</v>
+        <v>14.72789740091836</v>
       </c>
       <c r="D14">
-        <v>9.34193326651682</v>
+        <v>9.294967119551572</v>
       </c>
       <c r="E14">
-        <v>5.614262288290733</v>
+        <v>39.04192115234155</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.029987881500959</v>
+        <v>44.66090733350637</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.38452910965954</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>18.47896125520962</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>27.81198534379311</v>
+        <v>18.37679671299633</v>
       </c>
       <c r="L14">
-        <v>8.875657884053959</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.05066382691388</v>
+        <v>11.41594683947216</v>
       </c>
       <c r="O14">
-        <v>40.57494256029775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.03640123881541</v>
+        <v>19.42261447173458</v>
       </c>
       <c r="C15">
-        <v>17.99164510435787</v>
+        <v>14.63892063517048</v>
       </c>
       <c r="D15">
-        <v>9.282964722625824</v>
+        <v>9.239973208232916</v>
       </c>
       <c r="E15">
-        <v>5.613087293727039</v>
+        <v>38.7914692096802</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.031746171153062</v>
+        <v>44.44088249709122</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.35346668066199</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>18.43256580965634</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>27.63531250527914</v>
+        <v>18.27161619474157</v>
       </c>
       <c r="L15">
-        <v>8.839104160618559</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.05725060474145</v>
+        <v>11.44293740570375</v>
       </c>
       <c r="O15">
-        <v>40.38467345915994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.79842954350634</v>
+        <v>18.76298236654549</v>
       </c>
       <c r="C16">
-        <v>17.33298232683893</v>
+        <v>14.12299935258583</v>
       </c>
       <c r="D16">
-        <v>8.941980361543674</v>
+        <v>8.920580451241944</v>
       </c>
       <c r="E16">
-        <v>5.60732144760413</v>
+        <v>37.34418860532161</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.041794080644998</v>
+        <v>43.18212450750295</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>12.1790817455569</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>18.17293508166998</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>26.61388680410823</v>
+        <v>17.66099780373383</v>
       </c>
       <c r="L16">
-        <v>8.630553761396028</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.09841814781234</v>
+        <v>11.5986560309313</v>
       </c>
       <c r="O16">
-        <v>39.29950907143721</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.02963364615859</v>
+        <v>18.3501540853365</v>
       </c>
       <c r="C17">
-        <v>16.92362214242975</v>
+        <v>13.80097408863783</v>
       </c>
       <c r="D17">
-        <v>8.729921255310501</v>
+        <v>8.720791945185994</v>
       </c>
       <c r="E17">
-        <v>5.604617683260664</v>
+        <v>36.44496099118544</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.047940753548349</v>
+        <v>42.41169459103183</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>12.07525640402688</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>18.01909301827469</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.9788326558047</v>
+        <v>17.2792493859609</v>
       </c>
       <c r="L17">
-        <v>8.503390734693783</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.12655702284472</v>
+        <v>11.69510686344338</v>
       </c>
       <c r="O17">
-        <v>38.63805529223976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.58383937412264</v>
+        <v>18.10965451511661</v>
       </c>
       <c r="C18">
-        <v>16.68610972028216</v>
+        <v>13.61366948132465</v>
       </c>
       <c r="D18">
-        <v>8.606838670244287</v>
+        <v>8.604439161641611</v>
       </c>
       <c r="E18">
-        <v>5.60335754454554</v>
+        <v>35.92333702036253</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.051472640679266</v>
+        <v>41.96918733293899</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>12.01666861026288</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>17.93255088277608</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>25.6103053648315</v>
+        <v>17.05699955751329</v>
       </c>
       <c r="L18">
-        <v>8.430518954336542</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.14373855885513</v>
+        <v>11.7509182426125</v>
       </c>
       <c r="O18">
-        <v>38.25904154433864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.43226725116287</v>
+        <v>18.02769671412446</v>
       </c>
       <c r="C19">
-        <v>16.60532815073144</v>
+        <v>13.54988847950709</v>
       </c>
       <c r="D19">
-        <v>8.564969147215244</v>
+        <v>8.564794602650503</v>
       </c>
       <c r="E19">
-        <v>5.602980532323423</v>
+        <v>35.74594518777123</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.052668130076641</v>
+        <v>41.81946757449472</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.9970231521827</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>17.9035781676265</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>25.48495415029228</v>
+        <v>16.98128513069091</v>
       </c>
       <c r="L19">
-        <v>8.405890783469214</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.14972150040713</v>
+        <v>11.76987235999085</v>
       </c>
       <c r="O19">
-        <v>38.13095032196608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.11184256414897</v>
+        <v>18.39441507912477</v>
       </c>
       <c r="C20">
-        <v>16.96740988426138</v>
+        <v>13.83546875205971</v>
       </c>
       <c r="D20">
-        <v>8.752609189292642</v>
+        <v>8.74220824278393</v>
       </c>
       <c r="E20">
-        <v>5.604874727916683</v>
+        <v>36.54113684182526</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.047286855721302</v>
+        <v>42.49364318549574</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>12.08619121591057</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>18.03526743090431</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>26.04676933566845</v>
+        <v>17.32016327010965</v>
       </c>
       <c r="L20">
-        <v>8.516899299603548</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.12345706685132</v>
+        <v>11.68480472653051</v>
       </c>
       <c r="O20">
-        <v>38.7083168614125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.35328420150633</v>
+        <v>19.5904373445609</v>
       </c>
       <c r="C21">
-        <v>18.16016211663972</v>
+        <v>14.7704595675161</v>
       </c>
       <c r="D21">
-        <v>9.370158328786037</v>
+        <v>9.321264029024233</v>
       </c>
       <c r="E21">
-        <v>5.614843287971038</v>
+        <v>39.16181582836107</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.029144121521368</v>
+        <v>44.76645464301379</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.3994895750257</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>18.50132155824249</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>27.89655214638145</v>
+        <v>18.42709629631621</v>
       </c>
       <c r="L21">
-        <v>8.893203528872085</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.04756831910596</v>
+        <v>11.40302283426387</v>
       </c>
       <c r="O21">
-        <v>40.66627946035904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.7900154731344</v>
+        <v>20.34605588823447</v>
       </c>
       <c r="C22">
-        <v>18.92393517047991</v>
+        <v>15.36416799896269</v>
       </c>
       <c r="D22">
-        <v>9.765092189628948</v>
+        <v>9.687425089055415</v>
       </c>
       <c r="E22">
-        <v>5.624237517754553</v>
+        <v>40.84053110114842</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.017190589058481</v>
+        <v>46.25833646050971</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.61495894318411</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>18.82438315046286</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>29.08002849539485</v>
+        <v>19.12778530668331</v>
       </c>
       <c r="L22">
-        <v>9.141944801972899</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.00826869753204</v>
+        <v>11.22194465388999</v>
       </c>
       <c r="O22">
-        <v>41.9618427453055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.02557023051929</v>
+        <v>19.94509373808504</v>
       </c>
       <c r="C23">
-        <v>18.51759959620415</v>
+        <v>15.04882104193826</v>
       </c>
       <c r="D23">
-        <v>9.555036527898665</v>
+        <v>9.493094694828953</v>
       </c>
       <c r="E23">
-        <v>5.618946864902806</v>
+        <v>39.94740860550692</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.023582690632736</v>
+        <v>45.46143068272541</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.49894499950826</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>18.65020980381183</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>28.45052339901651</v>
+        <v>18.75583950224938</v>
       </c>
       <c r="L23">
-        <v>9.008904701564957</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.02822537530498</v>
+        <v>11.31830110435203</v>
       </c>
       <c r="O23">
-        <v>41.2687337013539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.0746877986946</v>
+        <v>18.37441453567775</v>
       </c>
       <c r="C24">
-        <v>16.94762021895755</v>
+        <v>13.81988048024822</v>
       </c>
       <c r="D24">
-        <v>8.742355622030749</v>
+        <v>8.732530586710457</v>
       </c>
       <c r="E24">
-        <v>5.604757604010099</v>
+        <v>36.49767026611451</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.047582488226414</v>
+        <v>42.45659291479355</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>12.08124415946241</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>18.02794906175003</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>26.01606587167272</v>
+        <v>17.30167476619829</v>
       </c>
       <c r="L24">
-        <v>8.510791346264099</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.12485544425327</v>
+        <v>11.68946120057711</v>
       </c>
       <c r="O24">
-        <v>38.67654769642556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.77351667743436</v>
+        <v>16.56298832889803</v>
       </c>
       <c r="C25">
-        <v>15.1743774449635</v>
+        <v>12.41404569234208</v>
       </c>
       <c r="D25">
-        <v>7.822737102713936</v>
+        <v>7.856839889107088</v>
       </c>
       <c r="E25">
-        <v>5.600624528365675</v>
+        <v>32.60567219070658</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.073361240356532</v>
+        <v>39.23976305947114</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.67357561829443</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>17.43047214550593</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>23.26404481703594</v>
+        <v>15.63024793928544</v>
       </c>
       <c r="L25">
-        <v>7.983773774528512</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.26664098172036</v>
+        <v>12.10265006742957</v>
       </c>
       <c r="O25">
-        <v>35.93494771072569</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.12298842269271</v>
+        <v>10.81297300820363</v>
       </c>
       <c r="C2">
-        <v>11.30427471648062</v>
+        <v>6.798951297540322</v>
       </c>
       <c r="D2">
-        <v>7.16187070110781</v>
+        <v>5.992680736410231</v>
       </c>
       <c r="E2">
-        <v>29.56934845085521</v>
+        <v>16.39331199136112</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.89313550612845</v>
+        <v>37.48732519481784</v>
       </c>
       <c r="H2">
-        <v>11.40713349588039</v>
+        <v>16.11040189603196</v>
       </c>
       <c r="I2">
-        <v>17.04812889248491</v>
+        <v>23.09226271678976</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.30598107503402</v>
+        <v>11.09798392166926</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.41783022535398</v>
+        <v>19.04870061661193</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.07838259550721</v>
+        <v>10.49440811641334</v>
       </c>
       <c r="C3">
-        <v>10.50312373530291</v>
+        <v>6.48711000768777</v>
       </c>
       <c r="D3">
-        <v>6.658378142161668</v>
+        <v>5.875757886646279</v>
       </c>
       <c r="E3">
-        <v>27.39513748426362</v>
+        <v>15.46906176445426</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>35.31988637919051</v>
+        <v>37.21951205374302</v>
       </c>
       <c r="H3">
-        <v>11.24611074924427</v>
+        <v>16.12659173312948</v>
       </c>
       <c r="I3">
-        <v>16.82209453900107</v>
+        <v>23.11593736069569</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.3479669934173</v>
+        <v>10.86491339514205</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.63834158027797</v>
+        <v>19.11033559680503</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.402372734768</v>
+        <v>10.29685371543023</v>
       </c>
       <c r="C4">
-        <v>9.986282443815155</v>
+        <v>6.289793328427747</v>
       </c>
       <c r="D4">
-        <v>6.332835297633448</v>
+        <v>5.804633534088312</v>
       </c>
       <c r="E4">
-        <v>25.99980911304069</v>
+        <v>14.87764814155789</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>34.36422656836299</v>
+        <v>37.06669540065129</v>
       </c>
       <c r="H4">
-        <v>11.15639404810154</v>
+        <v>16.13984090857926</v>
       </c>
       <c r="I4">
-        <v>16.69867854905329</v>
+        <v>23.13564811446016</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.72927382682502</v>
+        <v>10.72237897801617</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.77719402547172</v>
+        <v>19.15004717177155</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.1180880686094</v>
+        <v>10.21599552400927</v>
       </c>
       <c r="C5">
-        <v>9.769294850831654</v>
+        <v>6.208043256834748</v>
       </c>
       <c r="D5">
-        <v>6.205507562528916</v>
+        <v>5.775861394557248</v>
       </c>
       <c r="E5">
-        <v>25.41563098251811</v>
+        <v>14.63090054639666</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>33.97774107180553</v>
+        <v>37.00739471651742</v>
       </c>
       <c r="H5">
-        <v>11.12206176166839</v>
+        <v>16.14607001133255</v>
       </c>
       <c r="I5">
-        <v>16.65210744439144</v>
+        <v>23.14497744606305</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.46941304227996</v>
+        <v>10.66452761551736</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.8346553205248</v>
+        <v>19.16670037272604</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.07034818062245</v>
+        <v>10.20255194660634</v>
       </c>
       <c r="C6">
-        <v>9.732876606898238</v>
+        <v>6.194391746927129</v>
       </c>
       <c r="D6">
-        <v>6.186059829045359</v>
+        <v>5.771097872368463</v>
       </c>
       <c r="E6">
-        <v>25.31767725213754</v>
+        <v>14.5895905374883</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>33.91375531417389</v>
+        <v>36.99772883361545</v>
       </c>
       <c r="H6">
-        <v>11.116493289603</v>
+        <v>16.14715441260957</v>
       </c>
       <c r="I6">
-        <v>16.64459488000261</v>
+        <v>23.1466047830868</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.42579395206165</v>
+        <v>10.65493810954236</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.8442500117462</v>
+        <v>19.16949406031146</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.3985745529082</v>
+        <v>10.29576447509335</v>
       </c>
       <c r="C7">
-        <v>9.983381997408795</v>
+        <v>6.28869607014607</v>
       </c>
       <c r="D7">
-        <v>6.331006858390154</v>
+        <v>5.804244587877641</v>
       </c>
       <c r="E7">
-        <v>25.99199422732221</v>
+        <v>14.87434326531738</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>34.35900181863089</v>
+        <v>37.06588354939084</v>
       </c>
       <c r="H7">
-        <v>11.15592210827031</v>
+        <v>16.13992155890139</v>
       </c>
       <c r="I7">
-        <v>16.698035596899</v>
+        <v>23.13576868731515</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.72580067916758</v>
+        <v>10.72159771432086</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.77796540233907</v>
+        <v>19.15026985693504</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.76993100395265</v>
+        <v>10.70361787287913</v>
       </c>
       <c r="C8">
-        <v>11.03314935662786</v>
+        <v>6.692712955564215</v>
       </c>
       <c r="D8">
-        <v>6.991638367153677</v>
+        <v>5.952253617566519</v>
       </c>
       <c r="E8">
-        <v>28.83196029550507</v>
+        <v>16.07974341017384</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>36.34873393798796</v>
+        <v>37.39260358367928</v>
       </c>
       <c r="H8">
-        <v>11.34966980911535</v>
+        <v>16.11529633011725</v>
       </c>
       <c r="I8">
-        <v>16.96691730309611</v>
+        <v>23.09934944211724</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.98193195363351</v>
+        <v>11.01755527858507</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.4931495151386</v>
+        <v>19.06956526748762</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.18933289250645</v>
+        <v>11.48226368993143</v>
       </c>
       <c r="C9">
-        <v>12.89884835197102</v>
+        <v>7.4338333597952</v>
       </c>
       <c r="D9">
-        <v>8.159449054475848</v>
+        <v>6.245883139043928</v>
       </c>
       <c r="E9">
-        <v>33.94175808350884</v>
+        <v>18.29662607255325</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.3202092962165</v>
+        <v>38.1229852683037</v>
       </c>
       <c r="H9">
-        <v>11.80545892466325</v>
+        <v>16.09333844665327</v>
       </c>
       <c r="I9">
-        <v>17.62241006446745</v>
+        <v>23.06915407258315</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.20749593682125</v>
+        <v>11.59866124074989</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.96176876140757</v>
+        <v>18.92608257284422</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.80967906423262</v>
+        <v>12.03451956077778</v>
       </c>
       <c r="C10">
-        <v>14.15946610448369</v>
+        <v>7.941800452359926</v>
       </c>
       <c r="D10">
-        <v>8.943184360733101</v>
+        <v>6.461189625207735</v>
       </c>
       <c r="E10">
-        <v>37.44621549341085</v>
+        <v>19.92831104900199</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.27012213196462</v>
+        <v>38.71050563194082</v>
       </c>
       <c r="H10">
-        <v>12.1910841201961</v>
+        <v>16.09335449010456</v>
       </c>
       <c r="I10">
-        <v>18.19075669533249</v>
+        <v>23.07230006638408</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.70419854129938</v>
+        <v>12.0211481307089</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.58769600294973</v>
+        <v>18.82962015572745</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.51447366196003</v>
+        <v>12.28017938222956</v>
       </c>
       <c r="C11">
-        <v>14.71090524777205</v>
+        <v>8.164088586443228</v>
       </c>
       <c r="D11">
-        <v>9.284466844187659</v>
+        <v>6.558547521941488</v>
       </c>
       <c r="E11">
-        <v>38.99407185637151</v>
+        <v>20.62897916310933</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.6188232716768</v>
+        <v>38.98793727382948</v>
       </c>
       <c r="H11">
-        <v>12.3785747849617</v>
+        <v>16.09688291630052</v>
       </c>
       <c r="I11">
-        <v>18.47006447155296</v>
+        <v>23.07926377725567</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.35671306152906</v>
+        <v>12.21141520011849</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.42110417412486</v>
+        <v>18.78766976315046</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.77687958806696</v>
+        <v>12.37231109442952</v>
       </c>
       <c r="C12">
-        <v>14.91672828307492</v>
+        <v>8.246942079630017</v>
       </c>
       <c r="D12">
-        <v>9.411588307708826</v>
+        <v>6.595291043800813</v>
       </c>
       <c r="E12">
-        <v>39.57429628643891</v>
+        <v>20.88836008654002</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.1306329398322</v>
+        <v>39.09437376690623</v>
       </c>
       <c r="H12">
-        <v>12.45140210315003</v>
+        <v>16.09872599462523</v>
       </c>
       <c r="I12">
-        <v>18.57898536953307</v>
+        <v>23.08269796866794</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.59988711319833</v>
+        <v>12.28311286117767</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.35854627201273</v>
+        <v>18.77206112055939</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.7205624691401</v>
+        <v>12.35251005914966</v>
       </c>
       <c r="C13">
-        <v>14.87253085975397</v>
+        <v>8.22915773235953</v>
       </c>
       <c r="D13">
-        <v>9.384303175723787</v>
+        <v>6.587383781879199</v>
       </c>
       <c r="E13">
-        <v>39.44958458880004</v>
+        <v>20.83276171038927</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.02035421804639</v>
+        <v>39.07139077374705</v>
       </c>
       <c r="H13">
-        <v>12.43563450274676</v>
+        <v>16.0983065021911</v>
       </c>
       <c r="I13">
-        <v>18.55538424479265</v>
+        <v>23.08192287960147</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.54768682424463</v>
+        <v>12.26768831253062</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.37199551961533</v>
+        <v>18.77541040781484</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.53615084504217</v>
+        <v>12.287777544092</v>
       </c>
       <c r="C14">
-        <v>14.72789740091836</v>
+        <v>8.170931792918408</v>
       </c>
       <c r="D14">
-        <v>9.294967119551572</v>
+        <v>6.561573133644234</v>
       </c>
       <c r="E14">
-        <v>39.04192115234155</v>
+        <v>20.65043757693443</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.66090733350637</v>
+        <v>38.99666671218813</v>
       </c>
       <c r="H14">
-        <v>12.38452910965954</v>
+        <v>16.09702438530774</v>
       </c>
       <c r="I14">
-        <v>18.47896125520962</v>
+        <v>23.07953032632294</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.37679671299633</v>
+        <v>12.21732128811008</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.41594683947216</v>
+        <v>18.78638008132862</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.42261447173458</v>
+        <v>12.24800790341132</v>
       </c>
       <c r="C15">
-        <v>14.63892063517048</v>
+        <v>8.135092963469278</v>
       </c>
       <c r="D15">
-        <v>9.239973208232916</v>
+        <v>6.545746106692005</v>
       </c>
       <c r="E15">
-        <v>38.7914692096802</v>
+        <v>20.53798533281916</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.44088249709122</v>
+        <v>38.95107316753724</v>
       </c>
       <c r="H15">
-        <v>12.35346668066199</v>
+        <v>16.09630508273114</v>
       </c>
       <c r="I15">
-        <v>18.43256580965634</v>
+        <v>23.07816867323998</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.27161619474157</v>
+        <v>12.18642197975628</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.44293740570375</v>
+        <v>18.79313538741659</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.76298236654549</v>
+        <v>12.0183448825733</v>
       </c>
       <c r="C16">
-        <v>14.12299935258583</v>
+        <v>7.927091336914481</v>
       </c>
       <c r="D16">
-        <v>8.920580451241944</v>
+        <v>6.454811838202586</v>
       </c>
       <c r="E16">
-        <v>37.34418860532161</v>
+        <v>19.88168670095052</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.18212450750295</v>
+        <v>38.69257238708103</v>
       </c>
       <c r="H16">
-        <v>12.1790817455569</v>
+        <v>16.09319481236266</v>
       </c>
       <c r="I16">
-        <v>18.17293508166998</v>
+        <v>23.07195645166444</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.66099780373383</v>
+        <v>12.00866843710064</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.5986560309313</v>
+        <v>18.83240051483775</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.3501540853365</v>
+        <v>11.87595894604375</v>
       </c>
       <c r="C17">
-        <v>13.80097408863783</v>
+        <v>7.797193428517046</v>
       </c>
       <c r="D17">
-        <v>8.720791945185994</v>
+        <v>6.398847724157402</v>
       </c>
       <c r="E17">
-        <v>36.44496099118544</v>
+        <v>19.46844005232591</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.41169459103183</v>
+        <v>38.53653641791166</v>
       </c>
       <c r="H17">
-        <v>12.07525640402688</v>
+        <v>16.09218914015997</v>
       </c>
       <c r="I17">
-        <v>18.01909301827469</v>
+        <v>23.06956380717623</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.2792493859609</v>
+        <v>11.89907425826928</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.69510686344338</v>
+        <v>18.85698250463791</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.10965451511661</v>
+        <v>11.79354362743143</v>
       </c>
       <c r="C18">
-        <v>13.61366948132465</v>
+        <v>7.721655188270116</v>
       </c>
       <c r="D18">
-        <v>8.604439161641611</v>
+        <v>6.366605717170253</v>
       </c>
       <c r="E18">
-        <v>35.92333702036253</v>
+        <v>19.22683449313707</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.96918733293899</v>
+        <v>38.44775066817573</v>
       </c>
       <c r="H18">
-        <v>12.01666861026288</v>
+        <v>16.09194211339759</v>
       </c>
       <c r="I18">
-        <v>17.93255088277608</v>
+        <v>23.06870831448965</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.05699955751329</v>
+        <v>11.83586169603572</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.7509182426125</v>
+        <v>18.87130318914718</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.02769671412446</v>
+        <v>11.76555315407794</v>
       </c>
       <c r="C19">
-        <v>13.54988847950709</v>
+        <v>7.695939585690023</v>
       </c>
       <c r="D19">
-        <v>8.564794602650503</v>
+        <v>6.355681275008819</v>
       </c>
       <c r="E19">
-        <v>35.74594518777123</v>
+        <v>19.14435720511515</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.81946757449472</v>
+        <v>38.41785703164216</v>
       </c>
       <c r="H19">
-        <v>11.9970231521827</v>
+        <v>16.09191537048263</v>
       </c>
       <c r="I19">
-        <v>17.9035781676265</v>
+        <v>23.0685080304729</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.98128513069091</v>
+        <v>11.81443100761279</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.76987235999085</v>
+        <v>18.87618316517464</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.39441507912477</v>
+        <v>11.89117056695292</v>
       </c>
       <c r="C20">
-        <v>13.83546875205971</v>
+        <v>7.81110705828709</v>
       </c>
       <c r="D20">
-        <v>8.74220824278393</v>
+        <v>6.404810970423061</v>
       </c>
       <c r="E20">
-        <v>36.54113684182526</v>
+        <v>19.51283601051215</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.49364318549574</v>
+        <v>38.55304773775816</v>
       </c>
       <c r="H20">
-        <v>12.08619121591057</v>
+        <v>16.09226189082901</v>
       </c>
       <c r="I20">
-        <v>18.03526743090431</v>
+        <v>23.06976460525857</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.32016327010965</v>
+        <v>11.91075961567787</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.68480472653051</v>
+        <v>18.8543469014163</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.5904373445609</v>
+        <v>12.30681602970782</v>
       </c>
       <c r="C21">
-        <v>14.7704595675161</v>
+        <v>8.188070465377125</v>
       </c>
       <c r="D21">
-        <v>9.321264029024233</v>
+        <v>6.569158011144305</v>
       </c>
       <c r="E21">
-        <v>39.16181582836107</v>
+        <v>20.70415171959583</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.76645464301379</v>
+        <v>39.01857822442889</v>
       </c>
       <c r="H21">
-        <v>12.3994895750257</v>
+        <v>16.09738721267052</v>
       </c>
       <c r="I21">
-        <v>18.50132155824249</v>
+        <v>23.08021143188756</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.42709629631621</v>
+        <v>12.23212544641744</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.40302283426387</v>
+        <v>18.78315050755401</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.34605588823447</v>
+        <v>12.57321427599325</v>
       </c>
       <c r="C22">
-        <v>15.36416799896269</v>
+        <v>8.426710393017915</v>
       </c>
       <c r="D22">
-        <v>9.687425089055415</v>
+        <v>6.675829876719695</v>
       </c>
       <c r="E22">
-        <v>40.84053110114842</v>
+        <v>21.44809814087197</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.25833646050971</v>
+        <v>39.33082771459422</v>
       </c>
       <c r="H22">
-        <v>12.61495894318411</v>
+        <v>16.10369179408878</v>
       </c>
       <c r="I22">
-        <v>18.82438315046286</v>
+        <v>23.09168597934714</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.12778530668331</v>
+        <v>12.44007107194454</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.22194465388999</v>
+        <v>18.73823421327259</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.94509373808504</v>
+        <v>12.43154165233445</v>
       </c>
       <c r="C23">
-        <v>15.04882104193826</v>
+        <v>8.300067737916541</v>
       </c>
       <c r="D23">
-        <v>9.493094694828953</v>
+        <v>6.618977167625189</v>
       </c>
       <c r="E23">
-        <v>39.94740860550692</v>
+        <v>21.05419890833407</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.46143068272541</v>
+        <v>39.16347049169655</v>
       </c>
       <c r="H23">
-        <v>12.49894499950826</v>
+        <v>16.1000564310307</v>
       </c>
       <c r="I23">
-        <v>18.65020980381183</v>
+        <v>23.08513622059663</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.75583950224938</v>
+        <v>12.32930118001497</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.31830110435203</v>
+        <v>18.76205933208676</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.37441453567775</v>
+        <v>11.88429511689802</v>
       </c>
       <c r="C24">
-        <v>13.81988048024822</v>
+        <v>7.804819374863632</v>
       </c>
       <c r="D24">
-        <v>8.732530586710457</v>
+        <v>6.40211519400296</v>
       </c>
       <c r="E24">
-        <v>36.49767026611451</v>
+        <v>19.49277713640977</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.45659291479355</v>
+        <v>38.54558009365774</v>
       </c>
       <c r="H24">
-        <v>12.08124415946241</v>
+        <v>16.09222796877057</v>
       </c>
       <c r="I24">
-        <v>18.02794906175003</v>
+        <v>23.06967220455939</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.30167476619829</v>
+        <v>11.90547729957787</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.68946120057711</v>
+        <v>18.85553787141644</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.56298832889803</v>
+        <v>11.27463513119516</v>
       </c>
       <c r="C25">
-        <v>12.41404569234208</v>
+        <v>7.239422924062872</v>
       </c>
       <c r="D25">
-        <v>7.856839889107088</v>
+        <v>6.16634793271312</v>
       </c>
       <c r="E25">
-        <v>32.60567219070658</v>
+        <v>17.68113758635671</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>39.23976305947114</v>
+        <v>37.9161651726831</v>
       </c>
       <c r="H25">
-        <v>11.67357561829443</v>
+        <v>16.09644855757569</v>
       </c>
       <c r="I25">
-        <v>17.43047214550593</v>
+        <v>23.07288682364114</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.63024793928544</v>
+        <v>11.44189689975584</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.10265006742957</v>
+        <v>18.96332207094708</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.81297300820363</v>
+        <v>15.12298842269269</v>
       </c>
       <c r="C2">
-        <v>6.798951297540322</v>
+        <v>11.30427471648052</v>
       </c>
       <c r="D2">
-        <v>5.992680736410231</v>
+        <v>7.161870701107809</v>
       </c>
       <c r="E2">
-        <v>16.39331199136112</v>
+        <v>29.56934845085524</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>37.48732519481784</v>
+        <v>36.89313550612857</v>
       </c>
       <c r="H2">
-        <v>16.11040189603196</v>
+        <v>11.40713349588044</v>
       </c>
       <c r="I2">
-        <v>23.09226271678976</v>
+        <v>17.04812889248501</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.09798392166926</v>
+        <v>14.30598107503397</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.04870061661193</v>
+        <v>12.41783022535405</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.49440811641334</v>
+        <v>14.07838259550725</v>
       </c>
       <c r="C3">
-        <v>6.48711000768777</v>
+        <v>10.50312373530298</v>
       </c>
       <c r="D3">
-        <v>5.875757886646279</v>
+        <v>6.658378142161647</v>
       </c>
       <c r="E3">
-        <v>15.46906176445426</v>
+        <v>27.3951374842636</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>37.21951205374302</v>
+        <v>35.31988637919057</v>
       </c>
       <c r="H3">
-        <v>16.12659173312948</v>
+        <v>11.24611074924424</v>
       </c>
       <c r="I3">
-        <v>23.11593736069569</v>
+        <v>16.82209453900104</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.86491339514205</v>
+        <v>13.34796699341736</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.11033559680503</v>
+        <v>12.63834158027798</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.29685371543023</v>
+        <v>13.40237273476796</v>
       </c>
       <c r="C4">
-        <v>6.289793328427747</v>
+        <v>9.986282443815163</v>
       </c>
       <c r="D4">
-        <v>5.804633534088312</v>
+        <v>6.332835297633435</v>
       </c>
       <c r="E4">
-        <v>14.87764814155789</v>
+        <v>25.99980911304067</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>37.06669540065129</v>
+        <v>34.36422656836298</v>
       </c>
       <c r="H4">
-        <v>16.13984090857926</v>
+        <v>11.1563940481015</v>
       </c>
       <c r="I4">
-        <v>23.13564811446016</v>
+        <v>16.69867854905328</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.72237897801617</v>
+        <v>12.72927382682502</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.15004717177155</v>
+        <v>12.77719402547165</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.21599552400927</v>
+        <v>13.1180880686094</v>
       </c>
       <c r="C5">
-        <v>6.208043256834748</v>
+        <v>9.769294850831578</v>
       </c>
       <c r="D5">
-        <v>5.775861394557248</v>
+        <v>6.205507562528876</v>
       </c>
       <c r="E5">
-        <v>14.63090054639666</v>
+        <v>25.41563098251826</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>37.00739471651742</v>
+        <v>33.97774107180543</v>
       </c>
       <c r="H5">
-        <v>16.14607001133255</v>
+        <v>11.12206176166835</v>
       </c>
       <c r="I5">
-        <v>23.14497744606305</v>
+        <v>16.65210744439134</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.66452761551736</v>
+        <v>12.46941304227994</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.16670037272604</v>
+        <v>12.83465532052464</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.20255194660634</v>
+        <v>13.07034818062241</v>
       </c>
       <c r="C6">
-        <v>6.194391746927129</v>
+        <v>9.73287660689815</v>
       </c>
       <c r="D6">
-        <v>5.771097872368463</v>
+        <v>6.186059829045371</v>
       </c>
       <c r="E6">
-        <v>14.5895905374883</v>
+        <v>25.31767725213747</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>36.99772883361545</v>
+        <v>33.91375531417416</v>
       </c>
       <c r="H6">
-        <v>16.14715441260957</v>
+        <v>11.11649328960315</v>
       </c>
       <c r="I6">
-        <v>23.1466047830868</v>
+        <v>16.64459488000277</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.65493810954236</v>
+        <v>12.42579395206156</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.16949406031146</v>
+        <v>12.84425001174627</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.29576447509335</v>
+        <v>13.39857455290809</v>
       </c>
       <c r="C7">
-        <v>6.28869607014607</v>
+        <v>9.983381997408783</v>
       </c>
       <c r="D7">
-        <v>5.804244587877641</v>
+        <v>6.331006858390095</v>
       </c>
       <c r="E7">
-        <v>14.87434326531738</v>
+        <v>25.99199422732216</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>37.06588354939084</v>
+        <v>34.35900181863114</v>
       </c>
       <c r="H7">
-        <v>16.13992155890139</v>
+        <v>11.15592210827046</v>
       </c>
       <c r="I7">
-        <v>23.13576868731515</v>
+        <v>16.69803559689922</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.72159771432086</v>
+        <v>12.7258006791675</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.15026985693504</v>
+        <v>12.7779654023392</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.70361787287913</v>
+        <v>14.7699310039526</v>
       </c>
       <c r="C8">
-        <v>6.692712955564215</v>
+        <v>11.03314935662783</v>
       </c>
       <c r="D8">
-        <v>5.952253617566519</v>
+        <v>6.991638367153641</v>
       </c>
       <c r="E8">
-        <v>16.07974341017384</v>
+        <v>28.83196029550497</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>37.39260358367928</v>
+        <v>36.34873393798806</v>
       </c>
       <c r="H8">
-        <v>16.11529633011725</v>
+        <v>11.34966980911542</v>
       </c>
       <c r="I8">
-        <v>23.09934944211724</v>
+        <v>16.96691730309626</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.01755527858507</v>
+        <v>13.98193195363345</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.06956526748762</v>
+        <v>12.49314951513869</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.48226368993143</v>
+        <v>17.18933289250646</v>
       </c>
       <c r="C9">
-        <v>7.4338333597952</v>
+        <v>12.89884835197096</v>
       </c>
       <c r="D9">
-        <v>6.245883139043928</v>
+        <v>8.159449054475825</v>
       </c>
       <c r="E9">
-        <v>18.29662607255325</v>
+        <v>33.94175808350886</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>38.1229852683037</v>
+        <v>40.32020929621656</v>
       </c>
       <c r="H9">
-        <v>16.09333844665327</v>
+        <v>11.80545892466325</v>
       </c>
       <c r="I9">
-        <v>23.06915407258315</v>
+        <v>17.62241006446745</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.59866124074989</v>
+        <v>16.2074959368212</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.92608257284422</v>
+        <v>11.96176876140754</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.03451956077778</v>
+        <v>18.80967906423268</v>
       </c>
       <c r="C10">
-        <v>7.941800452359926</v>
+        <v>14.15946610448394</v>
       </c>
       <c r="D10">
-        <v>6.461189625207735</v>
+        <v>8.943184360733076</v>
       </c>
       <c r="E10">
-        <v>19.92831104900199</v>
+        <v>37.44621549341089</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>38.71050563194082</v>
+        <v>43.27012213196475</v>
       </c>
       <c r="H10">
-        <v>16.09335449010456</v>
+        <v>12.19108412019605</v>
       </c>
       <c r="I10">
-        <v>23.07230006638408</v>
+        <v>18.19075669533246</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.0211481307089</v>
+        <v>17.70419854129946</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.82962015572745</v>
+        <v>11.5876960029496</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.28017938222956</v>
+        <v>19.51447366196014</v>
       </c>
       <c r="C11">
-        <v>8.164088586443228</v>
+        <v>14.7109052477722</v>
       </c>
       <c r="D11">
-        <v>6.558547521941488</v>
+        <v>9.284466844187628</v>
       </c>
       <c r="E11">
-        <v>20.62897916310933</v>
+        <v>38.99407185637154</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>38.98793727382948</v>
+        <v>44.61882327167687</v>
       </c>
       <c r="H11">
-        <v>16.09688291630052</v>
+        <v>12.3785747849617</v>
       </c>
       <c r="I11">
-        <v>23.07926377725567</v>
+        <v>18.47006447155294</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.21141520011849</v>
+        <v>18.35671306152915</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.78766976315046</v>
+        <v>11.42110417412484</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.37231109442952</v>
+        <v>19.77687958806704</v>
       </c>
       <c r="C12">
-        <v>8.246942079630017</v>
+        <v>14.91672828307485</v>
       </c>
       <c r="D12">
-        <v>6.595291043800813</v>
+        <v>9.411588307708845</v>
       </c>
       <c r="E12">
-        <v>20.88836008654002</v>
+        <v>39.574296286439</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>39.09437376690623</v>
+        <v>45.13063293983232</v>
       </c>
       <c r="H12">
-        <v>16.09872599462523</v>
+        <v>12.45140210314997</v>
       </c>
       <c r="I12">
-        <v>23.08269796866794</v>
+        <v>18.57898536953303</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.28311286117767</v>
+        <v>18.5998871131984</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.77206112055939</v>
+        <v>11.35854627201266</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.35251005914966</v>
+        <v>19.72056246914005</v>
       </c>
       <c r="C13">
-        <v>8.22915773235953</v>
+        <v>14.8725308597539</v>
       </c>
       <c r="D13">
-        <v>6.587383781879199</v>
+        <v>9.384303175723753</v>
       </c>
       <c r="E13">
-        <v>20.83276171038927</v>
+        <v>39.44958458880003</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>39.07139077374705</v>
+        <v>45.02035421804636</v>
       </c>
       <c r="H13">
-        <v>16.0983065021911</v>
+        <v>12.43563450274679</v>
       </c>
       <c r="I13">
-        <v>23.08192287960147</v>
+        <v>18.55538424479269</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.26768831253062</v>
+        <v>18.54768682424461</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.77541040781484</v>
+        <v>11.37199551961536</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.287777544092</v>
+        <v>19.53615084504218</v>
       </c>
       <c r="C14">
-        <v>8.170931792918408</v>
+        <v>14.72789740091831</v>
       </c>
       <c r="D14">
-        <v>6.561573133644234</v>
+        <v>9.294967119551629</v>
       </c>
       <c r="E14">
-        <v>20.65043757693443</v>
+        <v>39.04192115234147</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>38.99666671218813</v>
+        <v>44.66090733350639</v>
       </c>
       <c r="H14">
-        <v>16.09702438530774</v>
+        <v>12.38452910965957</v>
       </c>
       <c r="I14">
-        <v>23.07953032632294</v>
+        <v>18.47896125520959</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.21732128811008</v>
+        <v>18.37679671299629</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.78638008132862</v>
+        <v>11.4159468394721</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.24800790341132</v>
+        <v>19.42261447173464</v>
       </c>
       <c r="C15">
-        <v>8.135092963469278</v>
+        <v>14.63892063517048</v>
       </c>
       <c r="D15">
-        <v>6.545746106692005</v>
+        <v>9.239973208232882</v>
       </c>
       <c r="E15">
-        <v>20.53798533281916</v>
+        <v>38.79146920968017</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>38.95107316753724</v>
+        <v>44.44088249709131</v>
       </c>
       <c r="H15">
-        <v>16.09630508273114</v>
+        <v>12.35346668066201</v>
       </c>
       <c r="I15">
-        <v>23.07816867323998</v>
+        <v>18.4325658096563</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.18642197975628</v>
+        <v>18.27161619474158</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.79313538741659</v>
+        <v>11.4429374057037</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.0183448825733</v>
+        <v>18.76298236654547</v>
       </c>
       <c r="C16">
-        <v>7.927091336914481</v>
+        <v>14.12299935258574</v>
       </c>
       <c r="D16">
-        <v>6.454811838202586</v>
+        <v>8.920580451241944</v>
       </c>
       <c r="E16">
-        <v>19.88168670095052</v>
+        <v>37.34418860532163</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>38.69257238708103</v>
+        <v>43.18212450750301</v>
       </c>
       <c r="H16">
-        <v>16.09319481236266</v>
+        <v>12.17908174555691</v>
       </c>
       <c r="I16">
-        <v>23.07195645166444</v>
+        <v>18.17293508167</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.00866843710064</v>
+        <v>17.66099780373382</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.83240051483775</v>
+        <v>11.59865603093125</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.87595894604375</v>
+        <v>18.3501540853365</v>
       </c>
       <c r="C17">
-        <v>7.797193428517046</v>
+        <v>13.80097408863789</v>
       </c>
       <c r="D17">
-        <v>6.398847724157402</v>
+        <v>8.72079194518605</v>
       </c>
       <c r="E17">
-        <v>19.46844005232591</v>
+        <v>36.44496099118549</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>38.53653641791166</v>
+        <v>42.41169459103188</v>
       </c>
       <c r="H17">
-        <v>16.09218914015997</v>
+        <v>12.07525640402688</v>
       </c>
       <c r="I17">
-        <v>23.06956380717623</v>
+        <v>18.01909301827472</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.89907425826928</v>
+        <v>17.27924938596093</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.85698250463791</v>
+        <v>11.69510686344336</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.79354362743143</v>
+        <v>18.10965451511655</v>
       </c>
       <c r="C18">
-        <v>7.721655188270116</v>
+        <v>13.61366948132459</v>
       </c>
       <c r="D18">
-        <v>6.366605717170253</v>
+        <v>8.604439161641574</v>
       </c>
       <c r="E18">
-        <v>19.22683449313707</v>
+        <v>35.9233370203626</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>38.44775066817573</v>
+        <v>41.96918733293913</v>
       </c>
       <c r="H18">
-        <v>16.09194211339759</v>
+        <v>12.01666861026292</v>
       </c>
       <c r="I18">
-        <v>23.06870831448965</v>
+        <v>17.93255088277619</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.83586169603572</v>
+        <v>17.05699955751322</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.87130318914718</v>
+        <v>11.75091824261257</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.76555315407794</v>
+        <v>18.02769671412439</v>
       </c>
       <c r="C19">
-        <v>7.695939585690023</v>
+        <v>13.54988847950708</v>
       </c>
       <c r="D19">
-        <v>6.355681275008819</v>
+        <v>8.56479460265056</v>
       </c>
       <c r="E19">
-        <v>19.14435720511515</v>
+        <v>35.74594518777112</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>38.41785703164216</v>
+        <v>41.8194675744949</v>
       </c>
       <c r="H19">
-        <v>16.09191537048263</v>
+        <v>11.99702315218276</v>
       </c>
       <c r="I19">
-        <v>23.0685080304729</v>
+        <v>17.9035781676266</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.81443100761279</v>
+        <v>16.98128513069087</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.87618316517464</v>
+        <v>11.76987235999086</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.89117056695292</v>
+        <v>18.39441507912472</v>
       </c>
       <c r="C20">
-        <v>7.81110705828709</v>
+        <v>13.83546875205969</v>
       </c>
       <c r="D20">
-        <v>6.404810970423061</v>
+        <v>8.742208242783901</v>
       </c>
       <c r="E20">
-        <v>19.51283601051215</v>
+        <v>36.54113684182525</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>38.55304773775816</v>
+        <v>42.49364318549584</v>
       </c>
       <c r="H20">
-        <v>16.09226189082901</v>
+        <v>12.08619121591066</v>
       </c>
       <c r="I20">
-        <v>23.06976460525857</v>
+        <v>18.0352674309044</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.91075961567787</v>
+        <v>17.32016327010959</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.8543469014163</v>
+        <v>11.68480472653054</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.30681602970782</v>
+        <v>19.59043734456107</v>
       </c>
       <c r="C21">
-        <v>8.188070465377125</v>
+        <v>14.770459567516</v>
       </c>
       <c r="D21">
-        <v>6.569158011144305</v>
+        <v>9.321264029024267</v>
       </c>
       <c r="E21">
-        <v>20.70415171959583</v>
+        <v>39.16181582836124</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>39.01857822442889</v>
+        <v>44.7664546430139</v>
       </c>
       <c r="H21">
-        <v>16.09738721267052</v>
+        <v>12.39948957502567</v>
       </c>
       <c r="I21">
-        <v>23.08021143188756</v>
+        <v>18.50132155824235</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.23212544641744</v>
+        <v>18.42709629631631</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.78315050755401</v>
+        <v>11.40302283426367</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.57321427599325</v>
+        <v>20.34605588823452</v>
       </c>
       <c r="C22">
-        <v>8.426710393017915</v>
+        <v>15.36416799896297</v>
       </c>
       <c r="D22">
-        <v>6.675829876719695</v>
+        <v>9.68742508905544</v>
       </c>
       <c r="E22">
-        <v>21.44809814087197</v>
+        <v>40.84053110114853</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>39.33082771459422</v>
+        <v>46.25833646050995</v>
       </c>
       <c r="H22">
-        <v>16.10369179408878</v>
+        <v>12.61495894318409</v>
       </c>
       <c r="I22">
-        <v>23.09168597934714</v>
+        <v>18.82438315046286</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.44007107194454</v>
+        <v>19.12778530668342</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.73823421327259</v>
+        <v>11.2219446538899</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.43154165233445</v>
+        <v>19.94509373808501</v>
       </c>
       <c r="C23">
-        <v>8.300067737916541</v>
+        <v>15.0488210419383</v>
       </c>
       <c r="D23">
-        <v>6.618977167625189</v>
+        <v>9.493094694829004</v>
       </c>
       <c r="E23">
-        <v>21.05419890833407</v>
+        <v>39.94740860550687</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>39.16347049169655</v>
+        <v>45.46143068272545</v>
       </c>
       <c r="H23">
-        <v>16.1000564310307</v>
+        <v>12.49894499950829</v>
       </c>
       <c r="I23">
-        <v>23.08513622059663</v>
+        <v>18.65020980381188</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.32930118001497</v>
+        <v>18.75583950224932</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.76205933208676</v>
+        <v>11.31830110435207</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.88429511689802</v>
+        <v>18.37441453567777</v>
       </c>
       <c r="C24">
-        <v>7.804819374863632</v>
+        <v>13.81988048024825</v>
       </c>
       <c r="D24">
-        <v>6.40211519400296</v>
+        <v>8.7325305867104</v>
       </c>
       <c r="E24">
-        <v>19.49277713640977</v>
+        <v>36.49767026611453</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>38.54558009365774</v>
+        <v>42.45659291479355</v>
       </c>
       <c r="H24">
-        <v>16.09222796877057</v>
+        <v>12.08124415946242</v>
       </c>
       <c r="I24">
-        <v>23.06967220455939</v>
+        <v>18.02794906174997</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.90547729957787</v>
+        <v>17.30167476619834</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.85553787141644</v>
+        <v>11.68946120057702</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.27463513119516</v>
+        <v>16.5629883288981</v>
       </c>
       <c r="C25">
-        <v>7.239422924062872</v>
+        <v>12.414045692342</v>
       </c>
       <c r="D25">
-        <v>6.16634793271312</v>
+        <v>7.856839889107103</v>
       </c>
       <c r="E25">
-        <v>17.68113758635671</v>
+        <v>32.60567219070665</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>37.9161651726831</v>
+        <v>39.23976305947118</v>
       </c>
       <c r="H25">
-        <v>16.09644855757569</v>
+        <v>11.67357561829445</v>
       </c>
       <c r="I25">
-        <v>23.07288682364114</v>
+        <v>17.43047214550592</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.44189689975584</v>
+        <v>15.63024793928544</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.96332207094708</v>
+        <v>12.10265006742957</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.12298842269269</v>
+        <v>13.66965290559329</v>
       </c>
       <c r="C2">
-        <v>11.30427471648052</v>
+        <v>8.082277541950468</v>
       </c>
       <c r="D2">
-        <v>7.161870701107809</v>
+        <v>7.078577963838306</v>
       </c>
       <c r="E2">
-        <v>29.56934845085524</v>
+        <v>8.944411540200894</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.89313550612857</v>
+        <v>24.12131015905185</v>
       </c>
       <c r="H2">
-        <v>11.40713349588044</v>
+        <v>2.028454208085716</v>
       </c>
       <c r="I2">
-        <v>17.04812889248501</v>
+        <v>2.903386379046716</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.445146145490661</v>
       </c>
       <c r="K2">
-        <v>14.30598107503397</v>
+        <v>15.62851097352869</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.30212831967345</v>
       </c>
       <c r="N2">
-        <v>12.41783022535405</v>
+        <v>7.362746231253131</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>12.71331854276039</v>
+      </c>
+      <c r="Q2">
+        <v>15.57311470551665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.07838259550725</v>
+        <v>12.80766833579361</v>
       </c>
       <c r="C3">
-        <v>10.50312373530298</v>
+        <v>7.887694915476269</v>
       </c>
       <c r="D3">
-        <v>6.658378142161647</v>
+        <v>6.596230325742273</v>
       </c>
       <c r="E3">
-        <v>27.3951374842636</v>
+        <v>8.696459642346564</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>35.31988637919057</v>
+        <v>23.69734870240556</v>
       </c>
       <c r="H3">
-        <v>11.24611074924424</v>
+        <v>2.205999323180031</v>
       </c>
       <c r="I3">
-        <v>16.82209453900104</v>
+        <v>3.041126916901622</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.449490797392043</v>
       </c>
       <c r="K3">
-        <v>13.34796699341736</v>
+        <v>15.62428653733426</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.66714821071939</v>
       </c>
       <c r="N3">
-        <v>12.63834158027798</v>
+        <v>7.094777329392123</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>12.84396972318175</v>
+      </c>
+      <c r="Q3">
+        <v>15.4892997581842</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.40237273476796</v>
+        <v>12.24622858970679</v>
       </c>
       <c r="C4">
-        <v>9.986282443815163</v>
+        <v>7.765530466969094</v>
       </c>
       <c r="D4">
-        <v>6.332835297633435</v>
+        <v>6.28573999969209</v>
       </c>
       <c r="E4">
-        <v>25.99980911304067</v>
+        <v>8.53891721919361</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>34.36422656836298</v>
+        <v>23.44305008741861</v>
       </c>
       <c r="H4">
-        <v>11.1563940481015</v>
+        <v>2.319238874579681</v>
       </c>
       <c r="I4">
-        <v>16.69867854905328</v>
+        <v>3.129778384488987</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.45479028448062</v>
       </c>
       <c r="K4">
-        <v>12.72927382682502</v>
+        <v>15.62495102561082</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.25643464420766</v>
       </c>
       <c r="N4">
-        <v>12.77719402547165</v>
+        <v>6.925145231924418</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>12.92579932690056</v>
+      </c>
+      <c r="Q4">
+        <v>15.44288301732352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.1180880686094</v>
+        <v>12.00440123971221</v>
       </c>
       <c r="C5">
-        <v>9.769294850831578</v>
+        <v>7.717956141811652</v>
       </c>
       <c r="D5">
-        <v>6.205507562528876</v>
+        <v>6.173442700331677</v>
       </c>
       <c r="E5">
-        <v>25.41563098251826</v>
+        <v>8.471224533735427</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>33.97774107180543</v>
+        <v>23.33082134914667</v>
       </c>
       <c r="H5">
-        <v>11.12206176166835</v>
+        <v>2.366758113527527</v>
       </c>
       <c r="I5">
-        <v>16.65210744439134</v>
+        <v>3.169719966878373</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.455960759677771</v>
       </c>
       <c r="K5">
-        <v>12.46941304227994</v>
+        <v>15.62149864919976</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.08375328901586</v>
       </c>
       <c r="N5">
-        <v>12.83465532052464</v>
+        <v>6.85526383116065</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>12.95926240711812</v>
+      </c>
+      <c r="Q5">
+        <v>15.4210705884819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.07034818062241</v>
+        <v>11.95765840157303</v>
       </c>
       <c r="C6">
-        <v>9.73287660689815</v>
+        <v>7.713564192473463</v>
       </c>
       <c r="D6">
-        <v>6.186059829045371</v>
+        <v>6.154621680420148</v>
       </c>
       <c r="E6">
-        <v>25.31767725213747</v>
+        <v>8.457206442251138</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>33.91375531417416</v>
+        <v>23.2998199258963</v>
       </c>
       <c r="H6">
-        <v>11.11649328960315</v>
+        <v>2.375078143137045</v>
       </c>
       <c r="I6">
-        <v>16.64459488000277</v>
+        <v>3.179995236220154</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.454190931369549</v>
       </c>
       <c r="K6">
-        <v>12.42579395206156</v>
+        <v>15.61544083329016</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.05460062400325</v>
       </c>
       <c r="N6">
-        <v>12.84425001174627</v>
+        <v>6.844148016600532</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>12.96448692783126</v>
+      </c>
+      <c r="Q6">
+        <v>15.41245047008251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.39857455290809</v>
+        <v>12.22671703462776</v>
       </c>
       <c r="C7">
-        <v>9.983381997408783</v>
+        <v>7.774544350338624</v>
       </c>
       <c r="D7">
-        <v>6.331006858390095</v>
+        <v>6.284196333357815</v>
       </c>
       <c r="E7">
-        <v>25.99199422732216</v>
+        <v>8.5307137674803</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>34.35900181863114</v>
+        <v>23.40769707213804</v>
       </c>
       <c r="H7">
-        <v>11.15592210827046</v>
+        <v>2.320852084163089</v>
       </c>
       <c r="I7">
-        <v>16.69803559689922</v>
+        <v>3.139784669574002</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.449345374021442</v>
       </c>
       <c r="K7">
-        <v>12.7258006791675</v>
+        <v>15.60981732965261</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.25367564785646</v>
       </c>
       <c r="N7">
-        <v>12.7779654023392</v>
+        <v>6.925721954732553</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>12.92532304280314</v>
+      </c>
+      <c r="Q7">
+        <v>15.42877044784669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.7699310039526</v>
+        <v>13.35921450777513</v>
       </c>
       <c r="C8">
-        <v>11.03314935662783</v>
+        <v>8.028389638944253</v>
       </c>
       <c r="D8">
-        <v>6.991638367153641</v>
+        <v>6.915773609220867</v>
       </c>
       <c r="E8">
-        <v>28.83196029550497</v>
+        <v>8.850769055204532</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>36.34873393798806</v>
+        <v>23.93020385490884</v>
       </c>
       <c r="H8">
-        <v>11.34966980911542</v>
+        <v>2.090016419960619</v>
       </c>
       <c r="I8">
-        <v>16.96691730309626</v>
+        <v>2.962157387150391</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.438924895145579</v>
       </c>
       <c r="K8">
-        <v>13.98193195363345</v>
+        <v>15.6065506627025</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.08698939943725</v>
       </c>
       <c r="N8">
-        <v>12.49314951513869</v>
+        <v>7.273395998487212</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>12.75702977331199</v>
+      </c>
+      <c r="Q8">
+        <v>15.52509244359991</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.18933289250646</v>
+        <v>15.36691639208051</v>
       </c>
       <c r="C9">
-        <v>12.89884835197096</v>
+        <v>8.487812886571703</v>
       </c>
       <c r="D9">
-        <v>8.159449054475825</v>
+        <v>8.024298666007519</v>
       </c>
       <c r="E9">
-        <v>33.94175808350886</v>
+        <v>9.446786138829571</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>40.32020929621656</v>
+        <v>25.05773622874555</v>
       </c>
       <c r="H9">
-        <v>11.80545892466325</v>
+        <v>1.668723401015136</v>
       </c>
       <c r="I9">
-        <v>17.62241006446745</v>
+        <v>2.630330990344059</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.449644759396453</v>
       </c>
       <c r="K9">
-        <v>16.2074959368212</v>
+        <v>15.65351602274576</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.55449008587112</v>
       </c>
       <c r="N9">
-        <v>11.96176876140754</v>
+        <v>7.90940925898151</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>12.44068570146716</v>
+      </c>
+      <c r="Q9">
+        <v>15.77913017203672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.80967906423268</v>
+        <v>16.66085586074541</v>
       </c>
       <c r="C10">
-        <v>14.15946610448394</v>
+        <v>8.848337554449138</v>
       </c>
       <c r="D10">
-        <v>8.943184360733076</v>
+        <v>8.756562462038939</v>
       </c>
       <c r="E10">
-        <v>37.44621549341089</v>
+        <v>9.695746705265327</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.27012213196475</v>
+        <v>25.74185131270581</v>
       </c>
       <c r="H10">
-        <v>12.19108412019605</v>
+        <v>1.731413444047951</v>
       </c>
       <c r="I10">
-        <v>18.19075669533246</v>
+        <v>2.552086352520047</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.443075868222397</v>
       </c>
       <c r="K10">
-        <v>17.70419854129946</v>
+        <v>15.63370921268601</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.52092182056272</v>
       </c>
       <c r="N10">
-        <v>11.5876960029496</v>
+        <v>8.216126597182875</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>12.21437258275025</v>
+      </c>
+      <c r="Q10">
+        <v>15.92064836552404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.51447366196014</v>
+        <v>16.75681708422092</v>
       </c>
       <c r="C11">
-        <v>14.7109052477722</v>
+        <v>9.324503965121805</v>
       </c>
       <c r="D11">
-        <v>9.284466844187628</v>
+        <v>9.06873331051195</v>
       </c>
       <c r="E11">
-        <v>38.99407185637154</v>
+        <v>8.556609349097686</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.61882327167687</v>
+        <v>24.70180763653602</v>
       </c>
       <c r="H11">
-        <v>12.3785747849617</v>
+        <v>2.694730931130062</v>
       </c>
       <c r="I11">
-        <v>18.47006447155294</v>
+        <v>2.615226948261094</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.210895404725974</v>
       </c>
       <c r="K11">
-        <v>18.35671306152915</v>
+        <v>15.05369248063408</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.87234635696574</v>
       </c>
       <c r="N11">
-        <v>11.42110417412484</v>
+        <v>7.247402445094083</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>12.11885729681972</v>
+      </c>
+      <c r="Q11">
+        <v>15.41091912908883</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.77687958806704</v>
+        <v>16.59192368688887</v>
       </c>
       <c r="C12">
-        <v>14.91672828307485</v>
+        <v>9.67057115130863</v>
       </c>
       <c r="D12">
-        <v>9.411588307708845</v>
+        <v>9.183166813758847</v>
       </c>
       <c r="E12">
-        <v>39.574296286439</v>
+        <v>7.741266570106966</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.13063293983232</v>
+        <v>23.70722116982445</v>
       </c>
       <c r="H12">
-        <v>12.45140210314997</v>
+        <v>4.030819120659666</v>
       </c>
       <c r="I12">
-        <v>18.57898536953303</v>
+        <v>2.620520513010283</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.021258948310692</v>
       </c>
       <c r="K12">
-        <v>18.5998871131984</v>
+        <v>14.59434770648115</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.97306157907026</v>
       </c>
       <c r="N12">
-        <v>11.35854627201266</v>
+        <v>6.40784118898993</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>12.10005242308632</v>
+      </c>
+      <c r="Q12">
+        <v>14.96301708090978</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.72056246914005</v>
+        <v>16.19248821489841</v>
       </c>
       <c r="C13">
-        <v>14.8725308597539</v>
+        <v>9.950990693131736</v>
       </c>
       <c r="D13">
-        <v>9.384303175723753</v>
+        <v>9.155955337905379</v>
       </c>
       <c r="E13">
-        <v>39.44958458880003</v>
+        <v>7.169460179714052</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>45.02035421804636</v>
+        <v>22.62403155033797</v>
       </c>
       <c r="H13">
-        <v>12.43563450274679</v>
+        <v>5.488654193049558</v>
       </c>
       <c r="I13">
-        <v>18.55538424479269</v>
+        <v>2.587379146530149</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.844321579201358</v>
       </c>
       <c r="K13">
-        <v>18.54768682424461</v>
+        <v>14.1786668255545</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.88963556583212</v>
       </c>
       <c r="N13">
-        <v>11.37199551961536</v>
+        <v>5.629181403492297</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>12.13524502773972</v>
+      </c>
+      <c r="Q13">
+        <v>14.51244578261134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.53615084504218</v>
+        <v>15.79719621822117</v>
       </c>
       <c r="C14">
-        <v>14.72789740091831</v>
+        <v>10.12532295978364</v>
       </c>
       <c r="D14">
-        <v>9.294967119551629</v>
+        <v>9.072485559850039</v>
       </c>
       <c r="E14">
-        <v>39.04192115234147</v>
+        <v>6.94686537278929</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.66090733350639</v>
+        <v>21.81355791006989</v>
       </c>
       <c r="H14">
-        <v>12.38452910965957</v>
+        <v>6.511643840773876</v>
       </c>
       <c r="I14">
-        <v>18.47896125520959</v>
+        <v>2.548378564182014</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.725564878319618</v>
       </c>
       <c r="K14">
-        <v>18.37679671299629</v>
+        <v>13.90796437890164</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.74686767103089</v>
       </c>
       <c r="N14">
-        <v>11.4159468394721</v>
+        <v>5.139846137868951</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>12.1848290069465</v>
+      </c>
+      <c r="Q14">
+        <v>14.19327779264633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.42261447173464</v>
+        <v>15.6441210908599</v>
       </c>
       <c r="C15">
-        <v>14.63892063517048</v>
+        <v>10.15551963313611</v>
       </c>
       <c r="D15">
-        <v>9.239973208232882</v>
+        <v>9.021536326989079</v>
       </c>
       <c r="E15">
-        <v>38.79146920968017</v>
+        <v>6.916853617983971</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.44088249709131</v>
+        <v>21.58824152199023</v>
       </c>
       <c r="H15">
-        <v>12.35346668066201</v>
+        <v>6.74850487234805</v>
       </c>
       <c r="I15">
-        <v>18.4325658096563</v>
+        <v>2.532159426450491</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.698167794563039</v>
       </c>
       <c r="K15">
-        <v>18.27161619474158</v>
+        <v>13.84706472622291</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.67193826105743</v>
       </c>
       <c r="N15">
-        <v>11.4429374057037</v>
+        <v>5.02971523384748</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>12.20669453751243</v>
+      </c>
+      <c r="Q15">
+        <v>14.11179089799956</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.76298236654547</v>
+        <v>15.15557455052695</v>
       </c>
       <c r="C16">
-        <v>14.12299935258574</v>
+        <v>9.959862319833139</v>
       </c>
       <c r="D16">
-        <v>8.920580451241944</v>
+        <v>8.726508991882568</v>
       </c>
       <c r="E16">
-        <v>37.34418860532163</v>
+        <v>6.901431148615766</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.18212450750301</v>
+        <v>21.46109533741302</v>
       </c>
       <c r="H16">
-        <v>12.17908174555691</v>
+        <v>6.538725698045734</v>
       </c>
       <c r="I16">
-        <v>18.17293508167</v>
+        <v>2.567000901497895</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.732961776519895</v>
       </c>
       <c r="K16">
-        <v>17.66099780373382</v>
+        <v>13.93376228411981</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.28756176987481</v>
       </c>
       <c r="N16">
-        <v>11.59865603093125</v>
+        <v>5.029263611767306</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>12.28748676419611</v>
+      </c>
+      <c r="Q16">
+        <v>14.12901241844327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.3501540853365</v>
+        <v>14.99358936995313</v>
       </c>
       <c r="C17">
-        <v>13.80097408863789</v>
+        <v>9.710840511456647</v>
       </c>
       <c r="D17">
-        <v>8.72079194518605</v>
+        <v>8.541740983371854</v>
       </c>
       <c r="E17">
-        <v>36.44496099118549</v>
+        <v>6.975260440044026</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.41169459103188</v>
+        <v>21.8029299487226</v>
       </c>
       <c r="H17">
-        <v>12.07525640402688</v>
+        <v>5.801410827921008</v>
       </c>
       <c r="I17">
-        <v>18.01909301827472</v>
+        <v>2.615051508201685</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.822803822029529</v>
       </c>
       <c r="K17">
-        <v>17.27924938596093</v>
+        <v>14.14157048313005</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.06593721809875</v>
       </c>
       <c r="N17">
-        <v>11.69510686344336</v>
+        <v>5.277994704330984</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>12.32414195771449</v>
+      </c>
+      <c r="Q17">
+        <v>14.31284250599977</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.10965451511655</v>
+        <v>15.11406985182561</v>
       </c>
       <c r="C18">
-        <v>13.61366948132459</v>
+        <v>9.389854889063754</v>
       </c>
       <c r="D18">
-        <v>8.604439161641574</v>
+        <v>8.434937933962191</v>
       </c>
       <c r="E18">
-        <v>35.9233370203626</v>
+        <v>7.307030956565473</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.96918733293913</v>
+        <v>22.60626054825483</v>
       </c>
       <c r="H18">
-        <v>12.01666861026292</v>
+        <v>4.547883163279584</v>
       </c>
       <c r="I18">
-        <v>17.93255088277619</v>
+        <v>2.618737307173744</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.973519456749163</v>
       </c>
       <c r="K18">
-        <v>17.05699955751322</v>
+        <v>14.49303063770994</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.96523484041429</v>
       </c>
       <c r="N18">
-        <v>11.75091824261257</v>
+        <v>5.835886017549149</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>12.33234229403946</v>
+      </c>
+      <c r="Q18">
+        <v>14.66921257148018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.02769671412439</v>
+        <v>15.42736415694241</v>
       </c>
       <c r="C19">
-        <v>13.54988847950708</v>
+        <v>9.082701406493683</v>
       </c>
       <c r="D19">
-        <v>8.56479460265056</v>
+        <v>8.400139677852076</v>
       </c>
       <c r="E19">
-        <v>35.74594518777112</v>
+        <v>8.027182157143452</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.8194675744949</v>
+        <v>23.6600982782284</v>
       </c>
       <c r="H19">
-        <v>11.99702315218276</v>
+        <v>3.059264227187986</v>
       </c>
       <c r="I19">
-        <v>17.9035781676266</v>
+        <v>2.605116332453838</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.15360371335362</v>
       </c>
       <c r="K19">
-        <v>16.98128513069087</v>
+        <v>14.9214009096701</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.970680936288</v>
       </c>
       <c r="N19">
-        <v>11.76987235999086</v>
+        <v>6.67034308167622</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>12.3266443712385</v>
+      </c>
+      <c r="Q19">
+        <v>15.11566376354102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.39441507912472</v>
+        <v>16.29078545498967</v>
       </c>
       <c r="C20">
-        <v>13.83546875205969</v>
+        <v>8.785358020018567</v>
       </c>
       <c r="D20">
-        <v>8.742208242783901</v>
+        <v>8.569509014904911</v>
       </c>
       <c r="E20">
-        <v>36.54113684182525</v>
+        <v>9.605022018613505</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.49364318549584</v>
+        <v>25.45791623039641</v>
       </c>
       <c r="H20">
-        <v>12.08619121591066</v>
+        <v>1.655580844955643</v>
       </c>
       <c r="I20">
-        <v>18.0352674309044</v>
+        <v>2.509030562362538</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.426210996384004</v>
       </c>
       <c r="K20">
-        <v>17.32016327010959</v>
+        <v>15.58935666715126</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.27268722825477</v>
       </c>
       <c r="N20">
-        <v>11.68480472653054</v>
+        <v>8.135150760452282</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>12.27204319690118</v>
+      </c>
+      <c r="Q20">
+        <v>15.83784662650105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.59043734456107</v>
+        <v>17.32069876716648</v>
       </c>
       <c r="C21">
-        <v>14.770459567516</v>
+        <v>9.002469454833877</v>
       </c>
       <c r="D21">
-        <v>9.321264029024267</v>
+        <v>9.106644141786743</v>
       </c>
       <c r="E21">
-        <v>39.16181582836124</v>
+        <v>10.03466324445989</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.7664546430139</v>
+        <v>26.24605102024601</v>
       </c>
       <c r="H21">
-        <v>12.39948957502567</v>
+        <v>1.874300335508323</v>
       </c>
       <c r="I21">
-        <v>18.50132155824235</v>
+        <v>2.677464399151606</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.469358411268775</v>
       </c>
       <c r="K21">
-        <v>18.42709629631631</v>
+        <v>15.68961996652791</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.99338809820259</v>
       </c>
       <c r="N21">
-        <v>11.40302283426367</v>
+        <v>8.564530284532228</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>12.10224883801239</v>
+      </c>
+      <c r="Q21">
+        <v>16.06397832656801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.34605588823452</v>
+        <v>17.95126812188397</v>
       </c>
       <c r="C22">
-        <v>15.36416799896297</v>
+        <v>9.146704074800208</v>
       </c>
       <c r="D22">
-        <v>9.68742508905544</v>
+        <v>9.443157208944337</v>
       </c>
       <c r="E22">
-        <v>40.84053110114853</v>
+        <v>10.23688411962201</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.25833646050995</v>
+        <v>26.72420858195274</v>
       </c>
       <c r="H22">
-        <v>12.61495894318409</v>
+        <v>2.010552867267167</v>
       </c>
       <c r="I22">
-        <v>18.82438315046286</v>
+        <v>2.778171344343072</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.493997756366406</v>
       </c>
       <c r="K22">
-        <v>19.12778530668342</v>
+        <v>15.74461651409563</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.44178338738964</v>
       </c>
       <c r="N22">
-        <v>11.2219446538899</v>
+        <v>8.769526826067571</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>11.99232711082084</v>
+      </c>
+      <c r="Q22">
+        <v>16.20041595529623</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.94509373808501</v>
+        <v>17.63131148661211</v>
       </c>
       <c r="C23">
-        <v>15.0488210419383</v>
+        <v>9.059168961908746</v>
       </c>
       <c r="D23">
-        <v>9.493094694829004</v>
+        <v>9.264944013253677</v>
       </c>
       <c r="E23">
-        <v>39.94740860550687</v>
+        <v>10.13668448985505</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.46143068272545</v>
+        <v>26.50392036052251</v>
       </c>
       <c r="H23">
-        <v>12.49894499950829</v>
+        <v>1.938995234018806</v>
       </c>
       <c r="I23">
-        <v>18.65020980381188</v>
+        <v>2.719549532532445</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.486785303339135</v>
       </c>
       <c r="K23">
-        <v>18.75583950224932</v>
+        <v>15.73207661849102</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.20462083497292</v>
       </c>
       <c r="N23">
-        <v>11.31830110435207</v>
+        <v>8.659134236090461</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>12.05123982872081</v>
+      </c>
+      <c r="Q23">
+        <v>16.14241119817192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.37441453567777</v>
+        <v>16.33738050992919</v>
       </c>
       <c r="C24">
-        <v>13.81988048024825</v>
+        <v>8.739602664865444</v>
       </c>
       <c r="D24">
-        <v>8.7325305867104</v>
+        <v>8.560920293468113</v>
       </c>
       <c r="E24">
-        <v>36.49767026611453</v>
+        <v>9.734596161211392</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.45659291479355</v>
+        <v>25.62128772257604</v>
       </c>
       <c r="H24">
-        <v>12.08124415946242</v>
+        <v>1.660273477095639</v>
       </c>
       <c r="I24">
-        <v>18.02794906174997</v>
+        <v>2.501314969930264</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.455560184291349</v>
       </c>
       <c r="K24">
-        <v>17.30167476619834</v>
+        <v>15.66522456398614</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.26742374440611</v>
       </c>
       <c r="N24">
-        <v>11.68946120057702</v>
+        <v>8.231268607259436</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>12.27615477578868</v>
+      </c>
+      <c r="Q24">
+        <v>15.90922075865443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.5629883288981</v>
+        <v>14.8140502267134</v>
       </c>
       <c r="C25">
-        <v>12.414045692342</v>
+        <v>8.382865576140649</v>
       </c>
       <c r="D25">
-        <v>7.856839889107103</v>
+        <v>7.738765455530354</v>
       </c>
       <c r="E25">
-        <v>32.60567219070665</v>
+        <v>9.278511551909258</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>39.23976305947118</v>
+        <v>24.69091218780009</v>
       </c>
       <c r="H25">
-        <v>11.67357561829445</v>
+        <v>1.780776286416571</v>
       </c>
       <c r="I25">
-        <v>17.43047214550592</v>
+        <v>2.734473314763912</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.434676503073284</v>
       </c>
       <c r="K25">
-        <v>15.63024793928544</v>
+        <v>15.61107543383836</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.17494490119001</v>
       </c>
       <c r="N25">
-        <v>12.10265006742957</v>
+        <v>7.744868523932756</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.52398268412954</v>
+      </c>
+      <c r="Q25">
+        <v>15.68170482287332</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.66965290559329</v>
+        <v>13.366625326713</v>
       </c>
       <c r="C2">
-        <v>8.082277541950468</v>
+        <v>7.912670068488506</v>
       </c>
       <c r="D2">
-        <v>7.078577963838306</v>
+        <v>7.081978585957659</v>
       </c>
       <c r="E2">
-        <v>8.944411540200894</v>
+        <v>8.756704458979465</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>24.12131015905185</v>
+        <v>22.70163406276698</v>
       </c>
       <c r="H2">
-        <v>2.028454208085716</v>
+        <v>1.952927476168291</v>
       </c>
       <c r="I2">
-        <v>2.903386379046716</v>
+        <v>2.808385084332152</v>
       </c>
       <c r="J2">
-        <v>9.445146145490661</v>
+        <v>9.638338969881019</v>
       </c>
       <c r="K2">
-        <v>15.62851097352869</v>
+        <v>15.08113665513211</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.60917576114496</v>
       </c>
       <c r="M2">
-        <v>11.30212831967345</v>
+        <v>9.715399232473908</v>
       </c>
       <c r="N2">
-        <v>7.362746231253131</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.31042339306131</v>
       </c>
       <c r="P2">
-        <v>12.71331854276039</v>
+        <v>7.461921475576356</v>
       </c>
       <c r="Q2">
-        <v>15.57311470551665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.606662711937</v>
+      </c>
+      <c r="S2">
+        <v>15.16785818777127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.80766833579361</v>
+        <v>12.51222365490062</v>
       </c>
       <c r="C3">
-        <v>7.887694915476269</v>
+        <v>7.654754002062745</v>
       </c>
       <c r="D3">
-        <v>6.596230325742273</v>
+        <v>6.600108023921358</v>
       </c>
       <c r="E3">
-        <v>8.696459642346564</v>
+        <v>8.533029820442808</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>23.69734870240556</v>
+        <v>22.38392354299319</v>
       </c>
       <c r="H3">
-        <v>2.205999323180031</v>
+        <v>2.118944489049552</v>
       </c>
       <c r="I3">
-        <v>3.041126916901622</v>
+        <v>2.931623007812386</v>
       </c>
       <c r="J3">
-        <v>9.449490797392043</v>
+        <v>9.623826298957139</v>
       </c>
       <c r="K3">
-        <v>15.62428653733426</v>
+        <v>15.10870431138751</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.72553022185106</v>
       </c>
       <c r="M3">
-        <v>10.66714821071939</v>
+        <v>9.662372484832648</v>
       </c>
       <c r="N3">
-        <v>7.094777329392123</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.68068480272934</v>
       </c>
       <c r="P3">
-        <v>12.84396972318175</v>
+        <v>7.196228126153642</v>
       </c>
       <c r="Q3">
-        <v>15.4892997581842</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.72798406578303</v>
+      </c>
+      <c r="S3">
+        <v>15.11554754254151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.24622858970679</v>
+        <v>11.96957132679285</v>
       </c>
       <c r="C4">
-        <v>7.765530466969094</v>
+        <v>7.493171020157331</v>
       </c>
       <c r="D4">
-        <v>6.28573999969209</v>
+        <v>6.288682024685323</v>
       </c>
       <c r="E4">
-        <v>8.53891721919361</v>
+        <v>8.390742105514059</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>23.44305008741861</v>
+        <v>22.19701979118448</v>
       </c>
       <c r="H4">
-        <v>2.319238874579681</v>
+        <v>2.224877337940014</v>
       </c>
       <c r="I4">
-        <v>3.129778384488987</v>
+        <v>3.011273984779027</v>
       </c>
       <c r="J4">
-        <v>9.45479028448062</v>
+        <v>9.615841142631364</v>
       </c>
       <c r="K4">
-        <v>15.62495102561082</v>
+        <v>15.12786951199676</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.79783916113889</v>
       </c>
       <c r="M4">
-        <v>10.25643464420766</v>
+        <v>9.647530460070191</v>
       </c>
       <c r="N4">
-        <v>6.925145231924418</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.27342001149528</v>
       </c>
       <c r="P4">
-        <v>12.92579932690056</v>
+        <v>7.02834477965653</v>
       </c>
       <c r="Q4">
-        <v>15.44288301732352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.80426702750185</v>
+      </c>
+      <c r="S4">
+        <v>15.08758068383997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.00440123971221</v>
+        <v>11.73727602103995</v>
       </c>
       <c r="C5">
-        <v>7.717956141811652</v>
+        <v>7.430182474041526</v>
       </c>
       <c r="D5">
-        <v>6.173442700331677</v>
+        <v>6.176391574299569</v>
       </c>
       <c r="E5">
-        <v>8.471224533735427</v>
+        <v>8.329367141637075</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>23.33082134914667</v>
+        <v>22.11267765210648</v>
       </c>
       <c r="H5">
-        <v>2.366758113527527</v>
+        <v>2.269353736002174</v>
       </c>
       <c r="I5">
-        <v>3.169719966878373</v>
+        <v>3.048004344734425</v>
       </c>
       <c r="J5">
-        <v>9.455960759677771</v>
+        <v>9.611163278872411</v>
       </c>
       <c r="K5">
-        <v>15.62149864919976</v>
+        <v>15.13180752823815</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.82339104088787</v>
       </c>
       <c r="M5">
-        <v>10.08375328901586</v>
+        <v>9.643451858940255</v>
       </c>
       <c r="N5">
-        <v>6.85526383116065</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.10221257121411</v>
       </c>
       <c r="P5">
-        <v>12.95926240711812</v>
+        <v>6.959268260132043</v>
       </c>
       <c r="Q5">
-        <v>15.4210705884819</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.83559269321795</v>
+      </c>
+      <c r="S5">
+        <v>15.07309119712786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.95765840157303</v>
+        <v>11.69208123271227</v>
       </c>
       <c r="C6">
-        <v>7.713564192473463</v>
+        <v>7.42414826156775</v>
       </c>
       <c r="D6">
-        <v>6.154621680420148</v>
+        <v>6.157570972258605</v>
       </c>
       <c r="E6">
-        <v>8.457206442251138</v>
+        <v>8.316431102752972</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>23.2998199258963</v>
+        <v>22.08627786462296</v>
       </c>
       <c r="H6">
-        <v>2.375078143137045</v>
+        <v>2.277156847541997</v>
       </c>
       <c r="I6">
-        <v>3.179995236220154</v>
+        <v>3.05838007779056</v>
       </c>
       <c r="J6">
-        <v>9.454190931369549</v>
+        <v>9.608377543526398</v>
       </c>
       <c r="K6">
-        <v>15.61544083329016</v>
+        <v>15.12709333321794</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.82260131963905</v>
       </c>
       <c r="M6">
-        <v>10.05460062400325</v>
+        <v>9.639970376838226</v>
       </c>
       <c r="N6">
-        <v>6.844148016600532</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.07331537750095</v>
       </c>
       <c r="P6">
-        <v>12.96448692783126</v>
+        <v>6.948291361915454</v>
       </c>
       <c r="Q6">
-        <v>15.41245047008251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.84056407478923</v>
+      </c>
+      <c r="S6">
+        <v>15.06571597615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.22671703462776</v>
+        <v>11.94700299909407</v>
       </c>
       <c r="C7">
-        <v>7.774544350338624</v>
+        <v>7.500885687160307</v>
       </c>
       <c r="D7">
-        <v>6.284196333357815</v>
+        <v>6.287110037371751</v>
       </c>
       <c r="E7">
-        <v>8.5307137674803</v>
+        <v>8.383674782146436</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>23.40769707213804</v>
+        <v>22.24051860869866</v>
       </c>
       <c r="H7">
-        <v>2.320852084163089</v>
+        <v>2.226872831760439</v>
       </c>
       <c r="I7">
-        <v>3.139784669574002</v>
+        <v>3.023368488005756</v>
       </c>
       <c r="J7">
-        <v>9.449345374021442</v>
+        <v>9.575826736482721</v>
       </c>
       <c r="K7">
-        <v>15.60981732965261</v>
+        <v>15.1077304542542</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.77971079472554</v>
       </c>
       <c r="M7">
-        <v>10.25367564785646</v>
+        <v>9.635443950635691</v>
       </c>
       <c r="N7">
-        <v>6.925721954732553</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.26666039601086</v>
       </c>
       <c r="P7">
-        <v>12.92532304280314</v>
+        <v>7.028279727341928</v>
       </c>
       <c r="Q7">
-        <v>15.42877044784669</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.80381748340258</v>
+      </c>
+      <c r="S7">
+        <v>15.06510593545342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.35921450777513</v>
+        <v>13.04988350332339</v>
       </c>
       <c r="C8">
-        <v>8.028389638944253</v>
+        <v>7.828732471708369</v>
       </c>
       <c r="D8">
-        <v>6.915773609220867</v>
+        <v>6.919211360445771</v>
       </c>
       <c r="E8">
-        <v>8.850769055204532</v>
+        <v>8.674707293336054</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>23.93020385490884</v>
+        <v>22.80436299714449</v>
       </c>
       <c r="H8">
-        <v>2.090016419960619</v>
+        <v>2.011903851795164</v>
       </c>
       <c r="I8">
-        <v>2.962157387150391</v>
+        <v>2.86573868323589</v>
       </c>
       <c r="J8">
-        <v>9.438924895145579</v>
+        <v>9.513643080059856</v>
       </c>
       <c r="K8">
-        <v>15.6065506627025</v>
+        <v>15.05298257647094</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.61751241266735</v>
       </c>
       <c r="M8">
-        <v>11.08698939943725</v>
+        <v>9.668270040221483</v>
       </c>
       <c r="N8">
-        <v>7.273395998487212</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.08453315641042</v>
       </c>
       <c r="P8">
-        <v>12.75702977331199</v>
+        <v>7.371249299879895</v>
       </c>
       <c r="Q8">
-        <v>15.52509244359991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.64711390763674</v>
+      </c>
+      <c r="S8">
+        <v>15.10287005769931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.36691639208051</v>
+        <v>15.01020409705461</v>
       </c>
       <c r="C9">
-        <v>8.487812886571703</v>
+        <v>8.4365790110124</v>
       </c>
       <c r="D9">
-        <v>8.024298666007519</v>
+        <v>8.026168793395746</v>
       </c>
       <c r="E9">
-        <v>9.446786138829571</v>
+        <v>9.213156273407067</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>25.05773622874555</v>
+        <v>23.74116516006865</v>
       </c>
       <c r="H9">
-        <v>1.668723401015136</v>
+        <v>1.618406142988776</v>
       </c>
       <c r="I9">
-        <v>2.630330990344059</v>
+        <v>2.56805097751142</v>
       </c>
       <c r="J9">
-        <v>9.449644759396453</v>
+        <v>9.531593353933092</v>
       </c>
       <c r="K9">
-        <v>15.65351602274576</v>
+        <v>15.00991711964243</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.34590739326603</v>
       </c>
       <c r="M9">
-        <v>12.55449008587112</v>
+        <v>9.901317613873358</v>
       </c>
       <c r="N9">
-        <v>7.90940925898151</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.53820111438142</v>
       </c>
       <c r="P9">
-        <v>12.44068570146716</v>
+        <v>8.003026960804721</v>
       </c>
       <c r="Q9">
-        <v>15.77913017203672</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.35534832908069</v>
+      </c>
+      <c r="S9">
+        <v>15.26633560815182</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.66085586074541</v>
+        <v>16.22080475684701</v>
       </c>
       <c r="C10">
-        <v>8.848337554449138</v>
+        <v>8.886948896163775</v>
       </c>
       <c r="D10">
-        <v>8.756562462038939</v>
+        <v>8.756736104291749</v>
       </c>
       <c r="E10">
-        <v>9.695746705265327</v>
+        <v>9.432538864825277</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>25.74185131270581</v>
+        <v>24.73866985341218</v>
       </c>
       <c r="H10">
-        <v>1.731413444047951</v>
+        <v>1.759862839410287</v>
       </c>
       <c r="I10">
-        <v>2.552086352520047</v>
+        <v>2.596841549757063</v>
       </c>
       <c r="J10">
-        <v>9.443075868222397</v>
+        <v>9.338077755194202</v>
       </c>
       <c r="K10">
-        <v>15.63370921268601</v>
+        <v>14.89761169384854</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.08442984222213</v>
       </c>
       <c r="M10">
-        <v>13.52092182056272</v>
+        <v>10.07504639413734</v>
       </c>
       <c r="N10">
-        <v>8.216126597182875</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.4769939343615</v>
       </c>
       <c r="P10">
-        <v>12.21437258275025</v>
+        <v>8.304444342825461</v>
       </c>
       <c r="Q10">
-        <v>15.92064836552404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.15141722329231</v>
+      </c>
+      <c r="S10">
+        <v>15.2964635149664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.75681708422092</v>
+        <v>16.30150593344139</v>
       </c>
       <c r="C11">
-        <v>9.324503965121805</v>
+        <v>9.389183198104991</v>
       </c>
       <c r="D11">
-        <v>9.06873331051195</v>
+        <v>9.068001920637329</v>
       </c>
       <c r="E11">
-        <v>8.556609349097686</v>
+        <v>8.332698282034794</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>24.70180763653602</v>
+        <v>24.67350590486565</v>
       </c>
       <c r="H11">
-        <v>2.694730931130062</v>
+        <v>2.70760221087427</v>
       </c>
       <c r="I11">
-        <v>2.615226948261094</v>
+        <v>2.653167486992375</v>
       </c>
       <c r="J11">
-        <v>9.210895404725974</v>
+        <v>8.785433794245153</v>
       </c>
       <c r="K11">
-        <v>15.05369248063408</v>
+        <v>14.30624552159463</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.59856913898689</v>
       </c>
       <c r="M11">
-        <v>13.87234635696574</v>
+        <v>9.703037241243113</v>
       </c>
       <c r="N11">
-        <v>7.247402445094083</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.78680143720231</v>
       </c>
       <c r="P11">
-        <v>12.11885729681972</v>
+        <v>7.32399046210273</v>
       </c>
       <c r="Q11">
-        <v>15.41091912908883</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.09110175754272</v>
+      </c>
+      <c r="S11">
+        <v>14.71490430642897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.59192368688887</v>
+        <v>16.14935477467152</v>
       </c>
       <c r="C12">
-        <v>9.67057115130863</v>
+        <v>9.734627912371707</v>
       </c>
       <c r="D12">
-        <v>9.183166813758847</v>
+        <v>9.182193367510481</v>
       </c>
       <c r="E12">
-        <v>7.741266570106966</v>
+        <v>7.556465124363637</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>23.70722116982445</v>
+        <v>24.16812640832927</v>
       </c>
       <c r="H12">
-        <v>4.030819120659666</v>
+        <v>4.029659502852106</v>
       </c>
       <c r="I12">
-        <v>2.620520513010283</v>
+        <v>2.656466811007947</v>
       </c>
       <c r="J12">
-        <v>9.021258948310692</v>
+        <v>8.503466797353035</v>
       </c>
       <c r="K12">
-        <v>14.59434770648115</v>
+        <v>13.87926727161467</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.28909029461885</v>
       </c>
       <c r="M12">
-        <v>13.97306157907026</v>
+        <v>9.377988097548229</v>
       </c>
       <c r="N12">
-        <v>6.40784118898993</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.86907518384754</v>
       </c>
       <c r="P12">
-        <v>12.10005242308632</v>
+        <v>6.477059882688851</v>
       </c>
       <c r="Q12">
-        <v>14.96301708090978</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.09668305764672</v>
+      </c>
+      <c r="S12">
+        <v>14.26241738511901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.19248821489841</v>
+        <v>15.79146529821838</v>
       </c>
       <c r="C13">
-        <v>9.950990693131736</v>
+        <v>10.0119598331346</v>
       </c>
       <c r="D13">
-        <v>9.155955337905379</v>
+        <v>9.155359630609569</v>
       </c>
       <c r="E13">
-        <v>7.169460179714052</v>
+        <v>7.027809116208827</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>22.62403155033797</v>
+        <v>23.03776913167632</v>
       </c>
       <c r="H13">
-        <v>5.488654193049558</v>
+        <v>5.482412443674569</v>
       </c>
       <c r="I13">
-        <v>2.587379146530149</v>
+        <v>2.627303687808733</v>
       </c>
       <c r="J13">
-        <v>8.844321579201358</v>
+        <v>8.423632277941204</v>
       </c>
       <c r="K13">
-        <v>14.1786668255545</v>
+        <v>13.54032646122897</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.07341990274846</v>
       </c>
       <c r="M13">
-        <v>13.88963556583212</v>
+        <v>9.066646570231994</v>
       </c>
       <c r="N13">
-        <v>5.629181403492297</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.79152172094098</v>
       </c>
       <c r="P13">
-        <v>12.13524502773972</v>
+        <v>5.695132193126988</v>
       </c>
       <c r="Q13">
-        <v>14.51244578261134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.14438072447606</v>
+      </c>
+      <c r="S13">
+        <v>13.87750228732484</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.79719621822117</v>
+        <v>15.4386973488993</v>
       </c>
       <c r="C14">
-        <v>10.12532295978364</v>
+        <v>10.18418149245984</v>
       </c>
       <c r="D14">
-        <v>9.072485559850039</v>
+        <v>9.072421273773733</v>
       </c>
       <c r="E14">
-        <v>6.94686537278929</v>
+        <v>6.839024710472515</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>21.81355791006989</v>
+        <v>21.96390835543502</v>
       </c>
       <c r="H14">
-        <v>6.511643840773876</v>
+        <v>6.50500516300867</v>
       </c>
       <c r="I14">
-        <v>2.548378564182014</v>
+        <v>2.594105075763696</v>
       </c>
       <c r="J14">
-        <v>8.725564878319618</v>
+        <v>8.443216467940587</v>
       </c>
       <c r="K14">
-        <v>13.90796437890164</v>
+        <v>13.33958987895248</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.95770544288389</v>
       </c>
       <c r="M14">
-        <v>13.74686767103089</v>
+        <v>8.856345175874774</v>
       </c>
       <c r="N14">
-        <v>5.139846137868951</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.66362437459775</v>
       </c>
       <c r="P14">
-        <v>12.1848290069465</v>
+        <v>5.205109833615943</v>
       </c>
       <c r="Q14">
-        <v>14.19327779264633</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.1955869120234</v>
+      </c>
+      <c r="S14">
+        <v>13.63317752441019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.6441210908599</v>
+        <v>15.30187743610407</v>
       </c>
       <c r="C15">
-        <v>10.15551963313611</v>
+        <v>10.21516878380185</v>
       </c>
       <c r="D15">
-        <v>9.021536326989079</v>
+        <v>9.021726189782299</v>
       </c>
       <c r="E15">
-        <v>6.916853617983971</v>
+        <v>6.818304790128335</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>21.58824152199023</v>
+        <v>21.57834021173241</v>
       </c>
       <c r="H15">
-        <v>6.74850487234805</v>
+        <v>6.741442357099276</v>
       </c>
       <c r="I15">
-        <v>2.532159426450491</v>
+        <v>2.581129433665484</v>
       </c>
       <c r="J15">
-        <v>8.698167794563039</v>
+        <v>8.480168623427296</v>
       </c>
       <c r="K15">
-        <v>13.84706472622291</v>
+        <v>13.30269025116262</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.94154133958035</v>
       </c>
       <c r="M15">
-        <v>13.67193826105743</v>
+        <v>8.805671712640105</v>
       </c>
       <c r="N15">
-        <v>5.02971523384748</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.59700398325185</v>
       </c>
       <c r="P15">
-        <v>12.20669453751243</v>
+        <v>5.095631575126116</v>
       </c>
       <c r="Q15">
-        <v>14.11179089799956</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.21506212974929</v>
+      </c>
+      <c r="S15">
+        <v>13.58209534273031</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.15557455052695</v>
+        <v>14.86386525652935</v>
       </c>
       <c r="C16">
-        <v>9.959862319833139</v>
+        <v>10.02387982556093</v>
       </c>
       <c r="D16">
-        <v>8.726508991882568</v>
+        <v>8.727802048030847</v>
       </c>
       <c r="E16">
-        <v>6.901431148615766</v>
+        <v>6.808568730544284</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>21.46109533741302</v>
+        <v>20.67718227800686</v>
       </c>
       <c r="H16">
-        <v>6.538725698045734</v>
+        <v>6.528065596847253</v>
       </c>
       <c r="I16">
-        <v>2.567000901497895</v>
+        <v>2.523109363888313</v>
       </c>
       <c r="J16">
-        <v>8.732961776519895</v>
+        <v>8.784789439082456</v>
       </c>
       <c r="K16">
-        <v>13.93376228411981</v>
+        <v>13.44679393018694</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.07942105677954</v>
       </c>
       <c r="M16">
-        <v>13.28756176987481</v>
+        <v>8.838682120954944</v>
       </c>
       <c r="N16">
-        <v>5.029263611767306</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.25191693970266</v>
       </c>
       <c r="P16">
-        <v>12.28748676419611</v>
+        <v>5.10330955116331</v>
       </c>
       <c r="Q16">
-        <v>14.12901241844327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.27270912243911</v>
+      </c>
+      <c r="S16">
+        <v>13.70007831236894</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.99358936995313</v>
+        <v>14.71375840544289</v>
       </c>
       <c r="C17">
-        <v>9.710840511456647</v>
+        <v>9.771531306352843</v>
       </c>
       <c r="D17">
-        <v>8.541740983371854</v>
+        <v>8.543516050643053</v>
       </c>
       <c r="E17">
-        <v>6.975260440044026</v>
+        <v>6.865812931145278</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>21.8029299487226</v>
+        <v>20.67698611905092</v>
       </c>
       <c r="H17">
-        <v>5.801410827921008</v>
+        <v>5.787354859672463</v>
       </c>
       <c r="I17">
-        <v>2.615051508201685</v>
+        <v>2.565125683834314</v>
       </c>
       <c r="J17">
-        <v>8.822803822029529</v>
+        <v>8.987354306777227</v>
       </c>
       <c r="K17">
-        <v>14.14157048313005</v>
+        <v>13.65874609772455</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.25215232170071</v>
       </c>
       <c r="M17">
-        <v>13.06593721809875</v>
+        <v>8.966046665804479</v>
       </c>
       <c r="N17">
-        <v>5.277994704330984</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.04757456448769</v>
       </c>
       <c r="P17">
-        <v>12.32414195771449</v>
+        <v>5.358141214609715</v>
       </c>
       <c r="Q17">
-        <v>14.31284250599977</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.2946016045131</v>
+      </c>
+      <c r="S17">
+        <v>13.91161976033405</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.11406985182561</v>
+        <v>14.81863516814937</v>
       </c>
       <c r="C18">
-        <v>9.389854889063754</v>
+        <v>9.443693782814064</v>
       </c>
       <c r="D18">
-        <v>8.434937933962191</v>
+        <v>8.436823373354477</v>
       </c>
       <c r="E18">
-        <v>7.307030956565473</v>
+        <v>7.160430973791683</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>22.60626054825483</v>
+        <v>21.29571996898179</v>
       </c>
       <c r="H18">
-        <v>4.547883163279584</v>
+        <v>4.529334488646479</v>
       </c>
       <c r="I18">
-        <v>2.618737307173744</v>
+        <v>2.565369817852144</v>
       </c>
       <c r="J18">
-        <v>8.973519456749163</v>
+        <v>9.173707065793209</v>
       </c>
       <c r="K18">
-        <v>14.49303063770994</v>
+        <v>13.97877438095655</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.49630572533551</v>
       </c>
       <c r="M18">
-        <v>12.96523484041429</v>
+        <v>9.202019682794017</v>
       </c>
       <c r="N18">
-        <v>5.835886017549149</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.95370403630144</v>
       </c>
       <c r="P18">
-        <v>12.33234229403946</v>
+        <v>5.921089106934986</v>
       </c>
       <c r="Q18">
-        <v>14.66921257148018</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.29023180615246</v>
+      </c>
+      <c r="S18">
+        <v>14.2540956582703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.42736415694241</v>
+        <v>15.09800097229574</v>
       </c>
       <c r="C19">
-        <v>9.082701406493683</v>
+        <v>9.128609225730086</v>
       </c>
       <c r="D19">
-        <v>8.400139677852076</v>
+        <v>8.401865542448736</v>
       </c>
       <c r="E19">
-        <v>8.027182157143452</v>
+        <v>7.834255307991482</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>23.6600982782284</v>
+        <v>22.23577505885173</v>
       </c>
       <c r="H19">
-        <v>3.059264227187986</v>
+        <v>3.033542592112035</v>
       </c>
       <c r="I19">
-        <v>2.605116332453838</v>
+        <v>2.554724109134081</v>
       </c>
       <c r="J19">
-        <v>9.15360371335362</v>
+        <v>9.347192140654116</v>
       </c>
       <c r="K19">
-        <v>14.9214009096701</v>
+        <v>14.35307830539031</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.77349829961718</v>
       </c>
       <c r="M19">
-        <v>12.970680936288</v>
+        <v>9.498207288761289</v>
       </c>
       <c r="N19">
-        <v>6.67034308167622</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.95992595055882</v>
       </c>
       <c r="P19">
-        <v>12.3266443712385</v>
+        <v>6.759402074977428</v>
       </c>
       <c r="Q19">
-        <v>15.11566376354102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.27275203472152</v>
+      </c>
+      <c r="S19">
+        <v>14.66136001643116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.29078545498967</v>
+        <v>15.88089972556407</v>
       </c>
       <c r="C20">
-        <v>8.785358020018567</v>
+        <v>8.820332896216673</v>
       </c>
       <c r="D20">
-        <v>8.569509014904911</v>
+        <v>8.570326441548467</v>
       </c>
       <c r="E20">
-        <v>9.605022018613505</v>
+        <v>9.346576142425825</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>25.45791623039641</v>
+        <v>24.10654725913833</v>
       </c>
       <c r="H20">
-        <v>1.655580844955643</v>
+        <v>1.690682164124515</v>
       </c>
       <c r="I20">
-        <v>2.509030562362538</v>
+        <v>2.564795035323352</v>
       </c>
       <c r="J20">
-        <v>9.426210996384004</v>
+        <v>9.486923404067864</v>
       </c>
       <c r="K20">
-        <v>15.58935666715126</v>
+        <v>14.89930080889415</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.13265877725578</v>
       </c>
       <c r="M20">
-        <v>13.27268722825477</v>
+        <v>10.0030656780912</v>
       </c>
       <c r="N20">
-        <v>8.135150760452282</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.24745090364088</v>
       </c>
       <c r="P20">
-        <v>12.27204319690118</v>
+        <v>8.226703053741492</v>
       </c>
       <c r="Q20">
-        <v>15.83784662650105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.20423005826614</v>
+      </c>
+      <c r="S20">
+        <v>15.27389258771011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.32069876716648</v>
+        <v>16.79830297175601</v>
       </c>
       <c r="C21">
-        <v>9.002469454833877</v>
+        <v>9.037561125123741</v>
       </c>
       <c r="D21">
-        <v>9.106644141786743</v>
+        <v>9.105135802252081</v>
       </c>
       <c r="E21">
-        <v>10.03466324445989</v>
+        <v>9.765408277666902</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.24605102024601</v>
+        <v>26.52111376397911</v>
       </c>
       <c r="H21">
-        <v>1.874300335508323</v>
+        <v>1.887499148302034</v>
       </c>
       <c r="I21">
-        <v>2.677464399151606</v>
+        <v>2.708271334840163</v>
       </c>
       <c r="J21">
-        <v>9.469358411268775</v>
+        <v>8.820289878970634</v>
       </c>
       <c r="K21">
-        <v>15.68961996652791</v>
+        <v>14.81301608211579</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.9362785588081</v>
       </c>
       <c r="M21">
-        <v>13.99338809820259</v>
+        <v>10.15117338263991</v>
       </c>
       <c r="N21">
-        <v>8.564530284532228</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.88855425037994</v>
       </c>
       <c r="P21">
-        <v>12.10224883801239</v>
+        <v>8.643439353196985</v>
       </c>
       <c r="Q21">
-        <v>16.06397832656801</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.05153338570115</v>
+      </c>
+      <c r="S21">
+        <v>15.24677810771972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.95126812188397</v>
+        <v>17.3580493757804</v>
       </c>
       <c r="C22">
-        <v>9.146704074800208</v>
+        <v>9.177950577366699</v>
       </c>
       <c r="D22">
-        <v>9.443157208944337</v>
+        <v>9.440033702301438</v>
       </c>
       <c r="E22">
-        <v>10.23688411962201</v>
+        <v>9.965718402516293</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>26.72420858195274</v>
+        <v>28.182964027861</v>
       </c>
       <c r="H22">
-        <v>2.010552867267167</v>
+        <v>2.009840719544278</v>
       </c>
       <c r="I22">
-        <v>2.778171344343072</v>
+        <v>2.791825345603694</v>
       </c>
       <c r="J22">
-        <v>9.493997756366406</v>
+        <v>8.404720933323501</v>
       </c>
       <c r="K22">
-        <v>15.74461651409563</v>
+        <v>14.73949299518326</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.79806066988394</v>
       </c>
       <c r="M22">
-        <v>14.44178338738964</v>
+        <v>10.24187675044121</v>
       </c>
       <c r="N22">
-        <v>8.769526826067571</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.28321228057602</v>
       </c>
       <c r="P22">
-        <v>11.99232711082084</v>
+        <v>8.839784558002069</v>
       </c>
       <c r="Q22">
-        <v>16.20041595529623</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.95505685568115</v>
+      </c>
+      <c r="S22">
+        <v>15.20670939531263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.63131148661211</v>
+        <v>17.08154261727972</v>
       </c>
       <c r="C23">
-        <v>9.059168961908746</v>
+        <v>9.097905129717921</v>
       </c>
       <c r="D23">
-        <v>9.264944013253677</v>
+        <v>9.262790774726701</v>
       </c>
       <c r="E23">
-        <v>10.13668448985505</v>
+        <v>9.863607296708185</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>26.50392036052251</v>
+        <v>27.13334529796136</v>
       </c>
       <c r="H23">
-        <v>1.938995234018806</v>
+        <v>1.946366661037802</v>
       </c>
       <c r="I23">
-        <v>2.719549532532445</v>
+        <v>2.741571297632579</v>
       </c>
       <c r="J23">
-        <v>9.486785303339135</v>
+        <v>8.690876679645017</v>
       </c>
       <c r="K23">
-        <v>15.73207661849102</v>
+        <v>14.80867076076234</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.89159264967821</v>
       </c>
       <c r="M23">
-        <v>14.20462083497292</v>
+        <v>10.21852868913593</v>
       </c>
       <c r="N23">
-        <v>8.659134236090461</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.08253720484703</v>
       </c>
       <c r="P23">
-        <v>12.05123982872081</v>
+        <v>8.735271148199969</v>
       </c>
       <c r="Q23">
-        <v>16.14241119817192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.00538371829817</v>
+      </c>
+      <c r="S23">
+        <v>15.26452140494847</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.33738050992919</v>
+        <v>15.92475845457701</v>
       </c>
       <c r="C24">
-        <v>8.739602664865444</v>
+        <v>8.766934599126266</v>
       </c>
       <c r="D24">
-        <v>8.560920293468113</v>
+        <v>8.561725178617815</v>
       </c>
       <c r="E24">
-        <v>9.734596161211392</v>
+        <v>9.472429067548457</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>25.62128772257604</v>
+        <v>24.24858202522075</v>
       </c>
       <c r="H24">
-        <v>1.660273477095639</v>
+        <v>1.695429053905848</v>
       </c>
       <c r="I24">
-        <v>2.501314969930264</v>
+        <v>2.554622129233026</v>
       </c>
       <c r="J24">
-        <v>9.455560184291349</v>
+        <v>9.519333723177251</v>
       </c>
       <c r="K24">
-        <v>15.66522456398614</v>
+        <v>14.96892994226784</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.18510703054398</v>
       </c>
       <c r="M24">
-        <v>13.26742374440611</v>
+        <v>10.05670418289912</v>
       </c>
       <c r="N24">
-        <v>8.231268607259436</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.24271838301781</v>
       </c>
       <c r="P24">
-        <v>12.27615477578868</v>
+        <v>8.323278507487835</v>
       </c>
       <c r="Q24">
-        <v>15.90922075865443</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.2055722932004</v>
+      </c>
+      <c r="S24">
+        <v>15.34208214811955</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.8140502267134</v>
+        <v>14.48811554631618</v>
       </c>
       <c r="C25">
-        <v>8.382865576140649</v>
+        <v>8.301666111197802</v>
       </c>
       <c r="D25">
-        <v>7.738765455530354</v>
+        <v>7.741181073152489</v>
       </c>
       <c r="E25">
-        <v>9.278511551909258</v>
+        <v>9.058871694330676</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>24.69091218780009</v>
+        <v>23.31525710250406</v>
       </c>
       <c r="H25">
-        <v>1.780776286416571</v>
+        <v>1.722529259133181</v>
       </c>
       <c r="I25">
-        <v>2.734473314763912</v>
+        <v>2.665656854081197</v>
       </c>
       <c r="J25">
-        <v>9.434676503073284</v>
+        <v>9.564009194868341</v>
       </c>
       <c r="K25">
-        <v>15.61107543383836</v>
+        <v>15.00146874592157</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.40479318188774</v>
       </c>
       <c r="M25">
-        <v>12.17494490119001</v>
+        <v>9.809997353937533</v>
       </c>
       <c r="N25">
-        <v>7.744868523932756</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.1672250568846</v>
       </c>
       <c r="P25">
-        <v>12.52398268412954</v>
+        <v>7.840207441779771</v>
       </c>
       <c r="Q25">
-        <v>15.68170482287332</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.43258294468404</v>
+      </c>
+      <c r="S25">
+        <v>15.20648948436963</v>
       </c>
     </row>
   </sheetData>
